--- a/news_data/2019_06.xlsx
+++ b/news_data/2019_06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,108 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>[종합] 제주도 사계항 관광잠수함 내부 폭발사고…3명 중경상</t>
+  </si>
+  <si>
+    <t>제주도관광협회 독거노인 위해 선풍기 기탁</t>
+  </si>
+  <si>
+    <t>효리의단골집 ‘이조은식당’ 제주도 중문 관광단지 맛집 방문객들 호평</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 무료로 옥돔...</t>
+  </si>
+  <si>
+    <t>강원·강화·제주도 등 관광도시 '세컨드 하우스' 인기</t>
+  </si>
+  <si>
+    <t>제주도, 개별관광 ‘맞춤형 온라인마케팅’ 강화</t>
+  </si>
+  <si>
+    <t>제주도, 개별관광객 타깃 맞춤형 홍보 강화</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 ‘이조은식당’ 갈치정식 제공하는 효리의단골집</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 '기원뚝배기' 해물갈치조림에 서비스로 옥돔...</t>
+  </si>
+  <si>
+    <t>효리의단골집 제주도 중문 관광단지 맛집 '이조은식당' 제주갈치 이용한 요리...</t>
+  </si>
+  <si>
+    <t>제주도관광협회장배 아마추어 친선골프대회 성황리 막</t>
+  </si>
+  <si>
+    <t>"롯데관광개발, 제주도 복합리조트 상당한 잠재력"-하나</t>
+  </si>
+  <si>
+    <t>효리의단골집 ‘이조은식당’ 현지인피셜 제주도 중문 관광단지 맛집 갈치정식</t>
+  </si>
+  <si>
+    <t>제주도관광협회 등반동호회, 관광상품 개발 촉진 현장체험</t>
+  </si>
+  <si>
+    <t>"제주도 장애인주차구역 위반, 관광지 인근 등 특정지역 집중"</t>
+  </si>
+  <si>
+    <t>‘관찰카메라24’ 남이섬, 제주도 다음 외국인이 가장 많이 찾는 단일 관광지</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 '기원뚝배기' 보양식 해물갈치조림에 서비스...</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 효리의단골집 '이조은식당' 갈치의 모든 것</t>
+  </si>
+  <si>
+    <t>‘힐링’ 제주도, 서울국제관광산업박람회 최우수 부스 운영상</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 호남국제관광박람회서 뱃길관광 중점 홍보</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 '기원뚝배기', 보양식 해물갈치조림에 옥돔...</t>
+  </si>
+  <si>
+    <t>제주도 관광 유커, 체류기간 짧고 재방문율 낮아</t>
+  </si>
+  <si>
+    <t>제주도, 아태지역 주요 관광지 위상 제고</t>
+  </si>
+  <si>
+    <t>제주도관광협회 등반동호회, 현장체험</t>
+  </si>
+  <si>
+    <t>제주도·관광공사 서부러시아 의료웰니스 시장 노크</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 ‘이조은식당’ 가성비 좋은 갈치정식이 대표메뉴...</t>
+  </si>
+  <si>
+    <t>제주도, 페이스북 유튜브로 제주관광 온라인 마케팅</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 갈치정식으로 유명한 효리의단골집 '이조은식당'</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제주여행 다양한 채널 홍보</t>
+  </si>
+  <si>
+    <t>제주도, 여름철 성수기 대비 관광숙박시설 등 안전점검</t>
+  </si>
+  <si>
+    <t>제주도, 세계관광기구 대상 제주관광 설명회 개최</t>
+  </si>
+  <si>
+    <t>[독자기고] 야간관광 빈약한 국제관광지 제주도</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 효리의단골집 '이조은식당' 푸짐한 갈치정식</t>
+  </si>
+  <si>
+    <t>제주도 외국인 관광객 '다시 왔다' 늘고 '처음 왔다' 줄고</t>
+  </si>
+  <si>
     <t>제주도관광협회, 제주 뱃길 지원 사업 추진</t>
   </si>
   <si>
@@ -52,31 +154,112 @@
     <t>제주도 교회와 벽, 버스, 관광지에 퍼진 ‘복음광고’</t>
   </si>
   <si>
-    <t>제주도관광협회, 제주 뱃길 지원 사업 추진 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-04 09:43 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 제주 뱃길 지원 사업 추진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도관광협회, 제주 뱃길 지원 사업 추진 기자명 문서현 기자 입력 2019.06.04 08:55 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 지난달 31일 부산-제주 뉴스타호 불꽃놀이 선상이벤트 지원 제주도관광협회가 뱃길 관광 상품개발 유도 등 다양한 측면에서 제주 뱃길 지원사업을 추진하고 있다.제주도와 제주도관광협회(회장 김영진)는 지난달 31일 부산을 출발해 제주로 향하는 여객선 뉴스타호(엠에스페리 대표 최철희)에서 진행된 불꽃놀이 선상이벤트를 지원했다.부산항대교를 배경으로 밤하늘을 수 놓은 이번 불꽃쇼는 탑승객 600여명으로부터 큰 호응을 얻어 뱃길 여행만의 매력을 느낄 수 있는 시간이 됐다.또한, 불꽃쇼에 앞서 색소폰 연주, 노래·댄스 경연대회를 열어 분위기를 한껏 고조시켜, 제주뱃길 관광에 만족도를 높였다.한편, 뉴스타호는 총 9,997t 정원 710명 규모의 여객선으로 매주 월·수·금 오후 7시 부산을 출항, 제주에 입항하며 약 12시간이 소요된다. 문서현 기자 start-to@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' [단독]제주TP 5대 원장 공모...다시 재공모 수순 밟을 듯 관절 특효 '쇠무릎'…닭발과 환상 콜라보 제주 첫 전국장애인기능경기대회 폐막 제주, 부동산시장 “빨간불”...미분양·가계대출 전국 최고 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 ‘2022 제주 반려동물 문화축제’ 개막 제주 첫 전국장애인기능경기대회 폐막 오늘의 주요뉴스 [제주특별자치도의회 소식] 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 [사회일반] 해외입국자 입국 1일차 PCR 의무검사 중단 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ [경제일반] 2030년 수소버스·트램 제주를 누빈다 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자 인사청문 ‘배신·기회주의자’ 난타 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 '탄저균' 설마 제주 함덕에?…시료 채취 결과 '음성' 서귀포서 운행중 자동차 화재 사고 한림항서 급유중 경유 10ℓ 유출 어선 적발 제주서 맹독성 파란고리문어 발견 새벽시간 제주시 자재보관창고 화재 인기뉴스 댓글많은기사 실시간댓글 1 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 2 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 3 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 4 국힘 제주도당 "이선화 임명은 吳도정 인사참사" 5 해외입국자 입국 1일차 PCR 의무검사 중단 6 서귀포서 운행중 자동차 화재 사고 7 오영훈 지사 “사회복지예산 25%까지 확대할 것” 8 일도2동 두문이 골목마을 도시재생, 국비 공모 신청 9 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 10 ‘돈 먹는 하마’ 버스 준공영제...개선방안은? 1 이재명 대표 ‘제주4·3해결·탄소중립’ 국비 지원 약속 2 제주관광공사, 해양쓰레기 팝업전시 필터(filter/必터) 개최 1 10 월이다 약속대로 국토부는, 제2공항 확정하고 착공해라 2 친일프레임을 고집하여 국민의 의식을 그프레임안에 가둬 정권을 유지하려 몸부림치는 공산추종세력 들은 주체사상을 연구하고 고 공부하여 종교화하는 586주사파빨갱이 들 뿐이며, 작금의 민주당 의 노선이다 3 슬프고 또 슬프네요.. 친일파 청산 못했더니 이모양입니다. 그래도 민족정신은 제대로 이어가야지 이게뭡니까? 4 독립유공자 후예분. 오히려 친일을 운운하는 자들이 빨갱이로 보이는 것은 그동안 잘못 배웠기 때문입니다. 우리 헌법 전문의 "3.1운동으로 건립된 대한민국임시정부의 법통을 계승하고~"에 있듯이 우리는 일제에 저항했고 그것이 대한민국의 정신적 초석입니다. 친일 운운이 빨갱이로보인다? 진짜 친일파들이 그동안 물타기와 레드컴플렉스를 잘도 이용해 온 것이죠!! 부끄러워해야합니다. 5 아래 댓글수준하곤 쯧쯧 6 이땅에서 빨갱이들이 모두 없어질때까지 4.3은 민주당 빨갱이들이 5.18,세월호와함께 줄기차게 우려먹을것임 ㅎㅎㅎ 7 개자식아 거기는 비행기 노선이 겹처저서 않된다고 하잔아 18또라이새끼야 정신좀차려라 제주날씨 4일 제주, 출근길 강풍 동반 '가을비' 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 호남국제관광박람회서 제주홍보관 운영 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:32 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 호남국제관광박람회서 제주홍보관 운영 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도관광협회, 호남국제관광박람회서 제주홍보관 운영 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2019.06.01 17:28 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 광주 김대중컨벤션센터에서 열린 2019 호남국제관광박람회에 참가해 지난 31일부터 제주관광 홍보관을 운영하고 있다.지난해에 이어 2회째를 맞이한 이번 박람회는 국내외 관광홍보관, 여행상품관, 관광기업관, 지역상품관 등 5개 분야에 각 지역을 대표하는 기관․단체․기업 110여개가 참가하고 있다.제주관광 홍보관은 여름을 테마로 축제 및 레저․스포츠 이미지를 구성하고 제주여행 종합쇼핑몰, 시티투어버스, 관광지뿐만 아니라 제주를 기점으로 하는 뱃길 관광의 활성화를 위해 4개 여객 선사들과 공동으로 홍보 활동을 전개하고 있다. 한편, 홍보관에서는 관람객 참여형 이벤트로 제주이미지를 넣은 머그잔 만들기 체험을 비롯하여 경품 추첨을 통해 다양한 제주관광기념품 공모전 수상작을 제공하고 있다. 특히 제주 해녀를 현대무용으로 표현한 퍼포먼스를 선보여 관람객들의 관심을 끌었다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도&amp;#8231;제주도관광협회 2019 서울국제관광산업박람회서 최우수 부스운영상 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도‧제주도관광협회 2019 서울국제관광산업박람회서 최우수 부스운영상 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도‧제주도관광협회 2019 서울국제관광산업박람회서 최우수 부스운영상 기자명 고 미 기자 입력 2019.06.10 11:10 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도와 제주특별자치도관광협회(회장 김영진)가 2019 서울국제관광산업박람회에서 ‘최우수 부스운영상’을 받았다.제주도관광협회는 지난 6일부터 9일까지 4일간 서울 코엑스에서 열린 2019 서 서울국제관광산업박람회에 이 같은 성과를 얻었다고 10일 밝혔다.이번 제주관광 홍보관은 힐링&amp;체험을 주제로 꾸렸다. 제주 천연 감물염색 및 열쇠고리 만들기 등 관람객 참여형 체험 프로그램을 운영하며 큰 호응을 얻었다. 제주여행 종합쇼핑몰과 제주시티투어 등 제주여행 채널도 홍보했다.박람회와 동시에 진행된 서울국제트래블마트에도 시리우스호텔, 정낭여행사, 테디베어사파리 등 도내 관광사업체가 참가해 실질적 수요 창출을 위해 협업해 관심을 모았다. 고 미 기자 popmee@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도민과 관광객들의 발길이 이어지는 제주도 맛집, 중문맛집 ‘대포동산횟집’ - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:30 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도민과 관광객들의 발길이 이어지는 제주도 맛집, 중문맛집 ‘대포동산횟집’ 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME LIFE in BIZ 일반 제주도민과 관광객들의 발길이 이어지는 제주도 맛집, 중문맛집 ‘대포동산횟집’ 곽종현 기자 승인 2019.06.15 09:00 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 유명한 여행지에서는 자신들만의 특색있는 볼거리와 먹거리들이 자주 소개된다. 그중 우리나라를 대표하는 제주도에서는 한라수목원, 천지연폭포, 동백수목원 등 다양할 볼거리가 있으며, 싱싱한 회와 다양한 먹거리들을 찾아 많은 여행객이 제주도를 찾고 있다. 그중 제주도 중문관광단지에 위치하여 지역 제주도민은 물론, 맛집을 찾는 관광객들에게까지 소문이 자자한 중문맛집 ‘대포동산횟집’은 30년 전통의 활어회 전문점으로 알려져있다. 지역 주민들을 찾아오게 하려면 맛은 물론, 자신들만의 매력이 있어야 한다. 요식 업계는 소문에 민감한 곳으로 10년을 유지하게 되는 곳은, 그 맛을 보러 많은 사람들이 찾아온다고 한다. 또한 20년이 되면 근방에서는 모르는 사람이 없게 된다고 말한다. 서귀포 중문관광단지에 위치해 있는 ‘대포동산횟집’은 30년간 자신만의 개성을 가지고 중문맛집으로써의 전통을 지켜온 식당이다. 제주도민뿐만 아니라 관광객들에게도 널리 알려진 곳으로, 여름이 다가오면서 개시한 물회를 맛보기 위한 발길이 이어지고 있다. 중문맛집 대포동산횟집에는 자리돔물회와 전복물회 중 하나를 선택해 매콤한 문어볶음과 함께 먹는 동산문어, 물회 정식이 있다. 신선한 해산물과 채소 등이 풍성하게 들어가 입안 가득 시원하고 신선한 맛을 볼 수 있다. 또한, 점심 특선으로 11시부터 오후 4시까지 갈치 옥돔구이와 성게미역국에 기본반찬이 곁들여져 나오는 동산 정식도 맛볼 수 있다. 대포동산횟집에서는 철에 따라 구문쟁이(능성어), 갯돔, 다금바리, 돗돔, 갈치, 고등어 등을 다양한 밑반찬과 함께 제공하는데, 자연 그대로의 신선함과 함께 비린내 없이 즉석에서 조리해 고소하고 담백한 맛을 선사한다. 또한 새우, 전복, 문어, 키조개, 관자 등 신선한 해산물 등으로 이뤄진 20여가지 이상의 푸짐한 밑반찬(쓰끼다시)이 무한으로 제공된다. 이외에도 밑반찬으로 보기 힘든 갈치회, 고등어회, 전복구이, 뽈락구이, 게우볶음밥 등 제주에서 더 신선하게 먹을 수 있는 음식이 밑반찬으로 나와 호평을 얻고 있다. 중문맛집 ‘대포동산 횟집’은 대포항 옆에 위치한 만큼, 드넓은 바다 조망이 가능하고 식당 내부가 본관과 별관으로 나뉘어 있어 200명 이상 수용 가능해, 대가족여행이나 회사연수회 등 각종 단체행사장소, 단체모임 장소로 추천된다. 여기에 더해 식당 단체예약 시 픽업 서비스를 제공해 손님의 편리함을 높이고자 한다. 한편, 중문맛집 대포동산횟집은 콘도형 펜션인 동산나라펜션을 자체적으로 운영하고 있다. 이를 통해 식사와 숙박, 인근에 관광까지 함께 해결할 수 있는 조건을 갖추고 있다. 곽종현 기자  veryordinary@naver.com 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 포토뉴스 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 깊어가는 가을, 코스모스 활짝 농지 매입하고도 농사짓지 않는 '가짜 제주 농부' 극성 어둠 밝히는 등대처럼...희망의 빛 비추겠습니다 가을 물들인 핑크뮬리 제주은행 “바람이 돌보는 제주 곶자왈” 제23회 사회복지의 날 기념식 개최 4·3 일반재판 수형인 163명 희생자 확인…직권재심 업무 시동 개인형 이동장치 이용 확대에 공공자전거 위기…제주시 "90대 추가" 제주도민 간 질환 사망률 전국 최고…코로나19 사망률은 최저 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 깊어가는 가을, 코스모스 활짝 농지 매입하고도 농사짓지 않는 '가짜 제주 농부' 극성 어둠 밝히는 등대처럼...희망의 빛 비추겠습니다 가을 물들인 핑크뮬리 제주은행 “바람이 돌보는 제주 곶자왈” 제23회 사회복지의 날 기념식 개최 4·3 일반재판 수형인 163명 희생자 확인…직권재심 업무 시동 개인형 이동장치 이용 확대에 공공자전거 위기…제주시 "90대 추가" 제주도민 간 질환 사망률 전국 최고…코로나19 사망률은 최저 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>재방문율 높은 제주도 중문 관광단지 맛집 ‘이조은식당’ 갈치조림이 맛있는 효리의단골집 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-03 오후 09:59:17 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
-  </si>
-  <si>
-    <t>[국내 6월 여행지 추천] 가족 여행, 커플 여행 가기 좋은 ‘제주도’...제주도 렌트카·관광지·맛집 소개 &lt; 생활·문화 &lt; 오늘공감 &lt; 기사본문 - 공감신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-04 10:30 (화) 전체기사 로그인 회원가입 전체 딥터뷰 경제공감 경제일반 금융/증권 산업/IT 종합 입법공감 종합 정치공감 종합 오늘공감 사회 생활·문화 인사/부고 종합 지역공감 칼럼공감 최종현 학술원 이슈앤속보 자문위원 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [국내 6월 여행지 추천] 가족 여행, 커플 여행 가기 좋은 ‘제주도’...제주도 렌트카·관광지·맛집 소개 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 스크롤 이동 상태바 현재위치 홈 오늘공감 생활·문화 [국내 6월 여행지 추천] 가족 여행, 커플 여행 가기 좋은 ‘제주도’...제주도 렌트카·관광지·맛집 소개 기자명 김지원 기자 입력 2019.06.03 18:17 댓글 0 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 닫기 ▲제주도는 가족 여행지로 좋다(사진=ⓒ게티이미지뱅크) 최근에는 제주도 항공권 특가가 자주 뜬다. 이에, 제주도 여행 비용 부담이 줄어 많은 이가 국내 여행지로 제주도를 선택한다. 제주도 렌트카 이용방법, 관광지를 비롯하여 맛집까지 한 번에 소개한다. ▲제주도 여행할 때 렌트카를 이용하는 이가 많다(사진=ⓒ게티이미지뱅크) 제주도 렌트카 이용방법제주도는 대중교통으로 여행하기 힘들다는 단점이 있다. 이에, 많은 이가 렌트카를 이용한다. 제주도 렌트카는 인터넷이나 앱으로 쉽게 예약할 수 있다. 혹시 운전면허증을 놓고 왔다면, 제주공항 내 자치 경찰단에서 확인증을 발급받을 수 있다. 제주도 공항에는 렌트카 회사로 가는 셔틀버스가 있다. 셔틀버스는 공항 5번 출구에서 탈 수 있다. 렌트카를 이용할 때는 빌릴 차를 꼼꼼하게 살펴야 한다. 스크래치 등 결함이 있는 곳은 사진으로 남겨두는 게 좋다. 반납할 때 억울하게 변상해야 하는 일이 생기는 것을 방지하기 위함이다. ▲제주도 여행지를 추천한다(사진=ⓒ게티이미지뱅크) 제주도 여행지 제주도 성산일출봉은 제주도 명소에서 빠질 수 없는 곳이다. 성산일출봉에서는 자연을 느끼며 산책을 즐길 수 있다. 풍경이 아름다워 사진 찍기도 좋다. 성산일출봉에는 보트 타는 곳도 있다. 애월해변은 제주도 저녁 가볼 만한 곳이다. 멋진 노을을 볼 수 있다. 현지인들도 산책을 즐기는 해변이다. 제주도 ‘성읍랜드’는 카트, 승마 등을 즐길 수 있는 관광지로, 아이들과 가볼 만한 곳이다. 승마는 이용시간에 따라 비용이 달라진다. 카트 이용 시에는 캐릭터 옷을 비용 없이 빌릴 수 있다. 이 외에도 제주도에는 용눈이 오름, 신풍 목장, 오조리 마을, 신창 풍차 해안도로 등 가볼 만한 곳이 많다. ▲제주도 맛집을 소개한다(사진=ⓒ게티이미지뱅크) 제주도 맛집‘오는정김밥’은 제주도 맛집이다. 제주도까지 가서 김밥을 먹는 것이 이해가 안 갈 것이다. 오는정김밥을 맛보면 생각이 달라진다. 손님이 많아 예약을 꼭 해야 한다. ‘가시아방국수’는 tvN ‘수요미식회’에 소개된 맛집이다. 돔베고기와 국수를 판다. 도톰한 돔베고기와 국수가 기막힌 조화를 이룬다. ‘놀맨’은 라면 맛집이다. 맛있는 해물 라면이 먹고 싶다면 ‘놀맨’을 추천한다 저작권자 © 공감신문 무단전재 및 재배포 금지 김지원 기자 gokorea_kim01@gmail.com 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 주요기사 “아티스트 나얼의 감성이 담긴 캐리어”…여기어때 블랙 기프트 이병윤 서울시의원, ‘2022 자랑스러운 인물대상’ 수상 최영희 의원 “사무장병원 환수결정 후 미징수금액 1조 7,517억 원” 청소년모바일상담센터, '2022 학생 자살예방 우수 콘텐츠 공모전' 실시 비건이펙트, 페이백 이벤트 진행 [특징주] 오토앤 주가 급등세... 이유는? 당신만 안 본 뉴스 50대 여배우 ‘조은숙’ 근황 공개...검색량은? "무안하고 당황스러워" 돈스파이크 와이프 성하윤 고충 토로 한그루 이혼에 남편 누구?...과거 애칭·인스타그램 재조명 롤 서버 점검, 언제까지 하나 "차 보닛에 손 대봐" 성하윤 소름 돋게 한 돈스파이크 의심 뭐였길래 50대 여배우 조은숙 "신랑, 어린 걸 불편..." 연하 남편 애칭 뭐길래 "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? 50대 여배우 ‘조은숙’ 근황 공개...검색량은? 오늘공감 이병윤 서울시의원, ‘2022 자랑스러운 인물대상’ 수상 청소년모바일상담센터, '2022 학생 자살예방 우수 콘텐츠 공모전' 실시 비건이펙트, 페이백 이벤트 진행 10월 4일 오늘의 띠별 운세 '쥐띠·소띠·뱀띠·용띠·개띠 주목' 합참 "북한, 동쪽 방향으로 미상 탄도미사일 발사"...일본 상공 통과한듯 인기기사 1 [오늘의 금값시세] 10월 3일 24·18k 한돈 금시세는? 2 [2022년 10월 공모주 청약 일정] 에스비비테크 수요예측·확정 공모가·상장일은? 3 [2022년 10월 공모주 청약 일정] 샤페론 수요예측·확정 공모가·상장일은? 4 [검은 손이 노린다] 피싱 범죄, 아는 만큼 피할 수 있다 (완) 5 [주유소 가격비교] 10월 3일 기름값 싼곳 어디? 최저가 휘발유 1517원·경유 1679원 6 [특징주] 오토앤 주가 급등세... 이유는? 7 김민기 의원, ``LH 임대주택 부적격 입주자 5년간 4만명 육박`` 8 최영희 의원 “건강보험공단 고액자산가·소득자 구상금 미납 심각” 9 한 총리 "연대·상생으로 재도약…홍익인간 정신으로 새시대 열어가야 10 배준영 의원 "5년간 국세청 과오납환급금 30조5천억 육박" 최신기사 “아티스트 나얼의 감성이 담긴 캐리어”…여기어때 블랙 기프트 이병윤 서울시의원, ‘2022 자랑스러운 인물대상’ 수상 최영희 의원 “사무장병원 환수결정 후 미징수금액 1조 7,517억 원” 청소년모바일상담센터, '2022 학생 자살예방 우수 콘텐츠 공모전' 실시 비건이펙트, 페이백 이벤트 진행 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 영등포구 은행로 58. 1204호(삼도오피스텔) 대표전화 : 02-782-9872 팩스 : 02-783-1358 청소년보호책임자 : 이성철 법인명 : (주)공감신문 제호 : 공감신문 등록번호 : 서울 다 10955 등록일 : 2014-04-17 발행일 : 2017-05-01 대표이사 : 방성식·전규열 발행인 겸 편집인 : 전규열 공감신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 공감신문. All rights reserved. mail to news1@gokorea.kr 위로 전체메뉴 전체기사 입법공감 전체 종합 경제공감 전체 경제일반 금융/증권 산업/IT 종합 딥터뷰 칼럼공감 전체 칼럼 생활경제칼럼 박영철 편집고문 칼럼 오늘공감 전체 사회 생활·문화 인사/부고 종합 정치공감 전체 종합 이슈앤속보 최종현 학술원 자문위원 지역공감 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>김영진 제주도관광협회장, ‘2019 한국관광혁신대상’ 최우수상 영예 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:30 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 김영진 제주도관광협회장, ‘2019 한국관광혁신대상’ 최우수상 영예 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 김영진 제주도관광협회장, ‘2019 한국관광혁신대상’ 최우수상 영예 문유미 기자 승인 2019.06.09 12:13 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 김영진 제주특별자치도관광협회장은 지난 7일 서울 코엑스에서 서울특별시·한국관광학회·태평양지역관광협회의 공동 주최로 열린 ‘2019 한국관광혁신대상’에서 마케팅 부문 최우수상을 수상했다.문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도관광협회, ‘2019 호남국제관광박람회’서 제주관광 홍보 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:30 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도관광협회, ‘2019 호남국제관광박람회’서 제주관광 홍보 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회, ‘2019 호남국제관광박람회’서 제주관광 홍보 문유미 기자 승인 2019.06.02 15:04 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 지난달 31일부터 2일까지 3일간 광주에서 열린 ‘2019 호남국제관광박람회’에 참가해 제주관광 홍보 활동을 펼쳤다.문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도 교회와 벽, 버스, 관광지에 퍼진 ‘복음광고’ : 문화 : 종교신문 1위 크리스천투데이 문화 제주도 교회와 벽, 버스, 관광지에 퍼진 ‘복음광고’ 크리스천투데이 전체기사 교계교단 전체기사 일반기사 연합기구 교단 기관단체 이단·사이비 목회신학 전체기사 일반기사 교회/목회 치유상담 신학대 소식 신학/단체 은혜의 샘 설교 교회로 돌아온 신학 교회건축, 패러다임을 바꾸다 선교 전체기사 일반기사 국내선교 해외선교 특수선교 중보기도 해외 한인교회 특별기고 청년캠퍼스 청소년 국제 전체기사 일반기사 국제기구 미국·중남미 아시아·대앙주 유럽 중동·아프리카 일반기사 사회 전체기사 일반기사 정치·사회 인권 종교 봉사 NGO 복지 사람들 문화 전체기사 일반기사 대중문화 에세이 송영옥 칼럼 영화·공연 미술전시 문학 북스 뮤직/CCM 크리스천 연예/스포츠 교육 전체기사 일반기사 교회교육 홈스쿨링 기독교학교 라이프 전체기사 건축 일터 사역 여행 집회/세미나 생활경제 가정 건강 크리스천기업소식 오피니언/칼럼 기독컨텐츠 카드뉴스 오늘의 묵상 기독교 명언 북마크 쉽게 씌어진 시 Praise 배경화면 Pray with You 산마루서신 오늘의 기도문 포토투데이 CTTV 문화 일반기사 제주도 교회와 벽, 버스, 관광지에 퍼진 ‘복음광고’ 김신의 기자 sukim@chtoday.co.kr | 입력 : 2019.06.04 18:03 Share Kakao More ▲서귀포 대정읍에 위치한 대정교회 ⓒ복음의전함 제주도 교회와 벽, 버스정류장, 관광지 전역에 ‘복음광고’가 세워졌다. 사단법인 복음의전함과 제주성시화운동본부는 &lt;대한민국을전도하다&gt; 3차 제주 캠페인으로 1일 제주영락교회에서, 2일 법환교회에서 2019 제주 복음화 전도 대회를 열었다. 제주도의 463 전 교회는 교회 외벽에 ‘복음광고’가 설치됐고 버스에도 ‘복음광고’가 걸렸다. 복음의 전함은 “직접 들은 동역자분들의 수많은 간증만큼이나 감사한 순간들의 연속이었다”며 “하나님께서 제주를 정말 사랑하시고, 대한민국을 정말 사랑하심을 느낄 수 있었다”고 했다. 또 복음의전함은 최근 익명의 기부를 통해 한겨레 신문에도 ‘복음광고’를 냈다. 이에 복음의전함은 “갈수록 매체 환경이 어려워지면서 다양했던 광고 매체가 점점 사라지고 있다. 모든 뉴스의 통로가 핸드폰이 되고, 인터넷이 되고, 영상이 되어가고 있다. 많은 사람들은 그 방법이 가장 효율적이고 효과적이라고 말한다. 그러나 그 사실 뒤에 숨겨진 또 다른 사실 한 가지. 여전히 누군가는 오프라인에서 신문을 본다. 50~60대 그 이상 어르신들은 여전히 신문을 본다”며 “어쩌면 청년들보다 앞으로의 삶에서 ‘복음’을 들을 기회가 훨씬 더 적은 그분들에게 복음을 전해야 한다는 마음이 있다”고 했다. 구독신청 &lt;저작권자 ⓒ '종교 신문 1위' 크리스천투데이, 무단전재 및 재배포 금지&gt; 마켓 플레이스 기독교 세미나/행사정보 꿈이있는교회 3GO사역 "나누고 섬기고 … 한국목회임지연구소 교회 후임 요청 … 총신대학교 실천목회연구과정 파워관계전도세미나 [양평] 더큰나무 펜션_캠프_교육관_수… &lt;눈으로 보듯 손으로 만지듯&gt; 전세계 모든 열방을 살리는 나성기도… "위코세"특강 위드코로나시대의 말씀… 목사님 전도사 선교사 후보생(남 여) [10월16일 개강]집중력 영어속독 강사&amp;… 수맥과팔체질 원데이 성막영성집회 강사 조태규목… 치유전문목회 필독서_GS약선카페 창업… 어쨌든 신장병을 고쳤다는데... 장대수 목사의 추석특별 심령치유의 … 사역장로 '7년의중간보고서' [시무장… 제37차 코칭 목회 세미나 &gt;Please activate JavaScript for write a comment in LiveRe. 인사이드 시티 이 기사는 논쟁중 종교인, 근로자에 비해 세금 적게 낸다? 팩트체크했더니 장혜영 의원, 국세청 자료 분석 후 ‘종교인 실효세율 0.7%’ 종교인들 2020년 소득신고 1조 7천억 원에 120억 원 납부 공제율 높고 기타소득 선택도 가능한 과세제도 원인 꼽아… 대구 퀴어축제, 교통 대란 우려… 중구청 미온 대처 논란 &lt;수리남&gt;까지… 넷플릭스, 반기독교에 집착하는 이유 인물 이 사람 “죽을 듯한 고비 만나도, 죽지 않아요… 중간에 그만두지 마시길” 불순물·석고는 ‘제거’ 칼슘·미네랄은 ‘풍부’… 명품 ‘미쁜 빛 소금’ 세계는 지금 美 캘리포니아, ‘시신 퇴비화’ 법안 통과… 존엄성 논란 데이비드 플랫 “복음 못 들으면 천국 못 가는 이유” 크리스천 셀럽 션-김미경-김성은, 한부모 돕는 플리마켓 함께해 최미-최명자-손영진-송정미, ‘THE DIVAS’ 콘서트 개최 많이 본 기사 최강희 “과거의 죄 고백하고 다 거룩해진 줄 알았는데…” 성경까지 왜곡해 윤석열 대통령 무분별 비난하는 사람들 총격으로 딸과 25명 성도 잃은 美 목회자의 고별설교 그리스도께 온전히 헌신한 성도의 7가지 징후 존 맥아더 목사, 성경 왜곡한 캘리포니아주지사에 공개 서한 美 히스패닉 복음주의자 66% “낙태 전면금지 지지” “단일 교회 최다 선교사 파송, 故 하용조 목사의 선교 DNA” 아프리카 복음주의 단체 회장 “거짓 목자의 특징은… ” 신앙과 삶 [신앙 에세이: 삶과 사랑] 참 진 CT YouTube [영상] 통계가 말하는 동성애와 에이즈 [영상] 이영훈 목사 “조용기 목사님은 강단에 서시기만 하면…”[영상] 인권위 명령 어기면 3천만원? 추진 중인 악법 뭐뭐 있나[영상] “콘텐츠웨이브 이태현 대표, 동성애 미화 방송 제작·살포 책임” 크리스천투데이 크리스천투데이 | 등록번호 : 서울, 아01897 | 등록일자 : 2011년 12월 2일 | 제호 : 크리스천투데이 | 발행인 : 유재광 | 편집인 : 이대웅 | 발행소 : 서울시 종로구 창경궁로 305, 시티빌딩 (혜화동) / 서울시 종로구 혜화동 31-1번지 시티빌딩 | 발행일자 : | 청소년보호책임자 : 송경호 | Tel : 02) 598-4564 | Fax : 02) 6008-4204 Copyright © All rights reserved. 크리스천투데이의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재, 복사, 배포 등은 법적제재를 받을 수 있습니다. 회사소개 | 구독신청 | 개인정보취급방침 | 편집자에게 | 광고안내 02)598-4597 | 대표전화 : 02)598-4564 | Fax : 02)6008-4204 저작권 | 회원약관 | 게시판/댓글 운영원칙 | 이메일주소 무단수집거부</t>
+    <t>[종합] 제주도 사계항 관광잠수함 내부 폭발사고…3명 중경상 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; [종합] 제주도 사계항 관광잠수함 내부 폭발사고…3명 중경상 파이낸셜뉴스입력 2019.06.26 15:53수정 2019.06.26 16:01 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 승객용 의자 고정 작업 중 바닥에 성치된 배터리 폭발 추정 26일 서귀포시 안덕면 사계항 내에서 폭발사고가 발생한 관광잠수함에서 소방당국이 구조에 나서고 있다. [사진=제주서부소방서 제공] [제주=좌승훈 기자] 26일 서귀포시 안덕면 사계항에 정박해 내부 수리작업 중이던 관광잠수함에서 폭발사고가 나 3명이 크고 작은 부상을 입었다. 제주도소방안전본부와 서귀포해양경찰서에 따르면 이날 낮 12시 25분쯤 사계항에 정박 중이던 관광잠수함(13t·승선원 53명)에서 폭발사고가 나 김모(51)씨와 현모(25)씨 등 2명이 중상을, 이모(36)씨가 경상을 입어 병원에서 치료를 받고 있다. 사고 당시 승객은 탑승하지 않았던 것으로 확인됐다. 경찰은 잠수함 내부 승객용 의자 고정 작업 중 잠수함 바닥에 설치된 배터리가 폭발해 사고가 발생한 것으로 보고 작업자 등을 상대로 정확한 사고 경위를 조사하고 있다. 이 잠수함은 사계항을 모항으로 2004년부터 운항됐다. 대정읍 송악산 해역을 경유하면서 관광객들에게 수중경관을 보여주는 해저잠수함이다. 지난 1993년 미국에서 건조됐으며 배터리로 운행한다. 한편 해당 관광잠수함은 이날 내부 폭발사고로 침몰할 우려는 없는 것으로 전해졌다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도관광협회 독거노인 위해 선풍기 기탁 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 13:05 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도관광협회 독거노인 위해 선풍기 기탁 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회 독거노인 위해 선풍기 기탁 정용기 기자 승인 2019.06.30 14:47 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 무더운 여름철을 맞아 독거노인을 위한 나눔 행사가 열렸다. 제주특별자치도관광협회(회장 김영진)는 지난 26일 제주시 내 독거노인들에게 전달해 달라며 선풍기 40대를 제주시홀로사는노인지원센터(센터장 김종래)에 기탁했다. 제주도관광협회는 지난겨울에도 관내 독거노인을 위해 겨울이불과 전기매트 등을 지원하는 등 지속적인 나눔 활동을 전개하고 있다. 도관광협회·제주시홀로사는노인지원센터 관계자는 “무더운 여름철을 맞아 더위에 취약한 어르신들이 건강하게 여름을 보낼 수 있도록 최선을 다하겠다”고 밝혔다. 정용기 기자  brave@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 정용기 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>효리의단골집 ‘이조은식당’ 제주도 중문 관광단지 맛집 방문객들 호평 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>강원·강화·제주도 등 관광도시 '세컨드 하우스' 인기 로그인 회원가입 UP2030 창업리그 일자리카페 청년리포트 스페셜 리포트 기업과 경제 산업 일반경제 거시경제 은행 보험 카드 서민 증권 건설·에너지 제약·바이오 생활경제 오피니언 전문가 칼럼 데스크 칼럼 기자수첩 사설 전국 네트워크 메트로 인천 수도권 충청 영남 호남 제주 뉴스 정치사회 글로벌 문화 연예 스포츠 AT미디어센터 포럼&amp;컨퍼런스 PDF 보기 2022년 10월 11일 Tuesday 로그인 ㅣ 회원가입 UP2030 창업리그 일자리 카페 청년 리포트 스페셜 리포트 기업과 경제 산업 일반경제 거시경제 은행 보험 카드 서민 증권 건설·에너지 제약·바이오 생활경제 오피니언 전문가 칼럼 데스크 칼럼 기자수첩 사설 전국 네트워크 메트로 인천 수도권 충청 영남 호남 제주 AT미디어센터 뉴스 정치사회 글로벌 문화 연예 스포츠 포럼&amp;컨퍼런스 PDF 지면보기 기사제보 공지.사고 UP2030 스페셜 리포트 기업과 경제 오피니언 전국네트워크 포럼&amp;컨퍼런스 PDF보기 AT미디어센터 포럼&amp;컨퍼런스 PDF보기 강원·강화·제주도 등 관광도시 '세컨드 하우스' 인기 정상명 입력 2019-07-01 10:33 수정 2019-06-28 09:56 예약 경쟁 없이 주말·휴가철 즐길 수 있어 춘천 우두지구 이지더원 조감도 (사진=라인건설) [아시아타임즈=정상명 기자] 주 5일제에 이어 주 52시간 근무가 제도화되는 등 '워라밸'이 중시되고 있다. 집에서 휴가를즐기는 스테이케이션도 주택시장 트렌드로 자리잡고 있다. 28일 부동산 업계에 따르면 쾌적한 자연환경 속에서 다양한 레저 활동을 즐길 수 있는 세컨드 하우스를 마련하려는 소비자들이 늘고 있다. 세컨드 하우스는 수도권에서 가까워 이동이 편리한 경기도 지역으로 한정돼 왔다. 하지만 경춘선을 비롯해 서울~춘천고속도로, 서울~양양고속도로 등 신규 고속도로가 개통되면서 이동시간이 감소, 지방 관광도시까지 영역을 넓히고 있다. 실제 춘천이나 속초 등 서울에서 1~2시간이면 이동 가능한 주요 관광도시에서 분양에 나선 단지들은 청약시장서 높은 인기를 누리고 있다. 금융결제원에 따르면 올해 1월 강원도 춘천에서 분양에 나선 '춘천 센트럴파크 푸르지오'는 1311가구 모집에 7709명이 청약을 접수하면서 평균 5.88대 1의 양호한 성적을 거뒀다. 춘천은 소양강을 비롯, 공지천 등 다양한 관광자원이 갖춰져 있고 여름 레포츠와 겨울 스키를 모두 즐길 수 있어 세컨드 하우스 수요가 풍부한 곳이다. 지난해 8월 현대건설이 강원도 속초시에 공급한 '힐스테이트 속초 센트럴'도 234가구 모집에 2146명이 몰려 평균 경쟁률 9.17 대 1의 높은 청약 경쟁률을 기록했다. 이 아파트는 서울~양양고속도로를 통해 서울에서 2시간이면 이동이 가능한데다 단지 동쪽으로 바다 조망이 가능해 세컨드 하우스로 사용하려는 수요가 적지 않았다는 분석이다. 이들 단지는 관광자원이 우수하다는 점 외에도 숙박 및 교통 등 예약 경쟁 없이 원하는 날짜에 맞춰 자유롭게 휴가를 즐길 수 있어 높은 인기를 끈 것으로 풀이된다. 아울러 세컨드 하우스로 적합한 아파트를 찾는 소비자들이 늘어남에 따라 시세 차익을 기대할 수 있다는 점도 인기의 또 다른 이유로 지목된다. 실제 관광도시 내 새 아파트는 몸값이 오름세에 있다. 국토교통부 아파트 실거래가 공개시스템을 보면 춘천시 후평동 소재 '일성 트루엘 더퍼스트' 전용 84㎡ 타입은 2018년 6월 2억8000만원에 거래됐지만 올해 6월에는 2000만원 오른 3억원에 새 주인을 찾았다. 같은 기간 속초시 조양동 소재 '속초 청호 아이파크' 전용 84㎡ 타입도 3억2750만원에서 3250만원 오른 3억6000만원에 거래가 이뤄졌다. 업계 관계자는 "관광자원이 풍부한 지방 유명도시에서 분양 예정인 아파트에 대한 관심도 높아지고 있다"며 "지역 내 실거주 수요와 세컨드 하우스 수요가 몰릴 것으로 예상돼 청약경쟁도 치열할 전망"이라고 말했다. 라인건설은 강원 춘천시 우두택지지구 B3·4블록에 조성하는 '춘천 우두지구 이지더원'을 내달 분양할 예정이다. 전용면적 67 ~ 84㎡, 총 1310가구 중 916가구가 1차로 먼저 분양된다. 강원도 최초로 내집 앞 창고가 전 가구에 제공되며 전용 84㎡에는 분리형 욕실이 적용된다. 분양가는 3.3㎡당 700만원대로 예상된다. 쌍용건설은 인천광역시 강화군 선원면 창리 505-1 일원에 조성하는 '강화 쌍용 센트럴파크'를 분양 중이다. 입주민 영어교실·애견호텔·골프 아카데미 등의 서비스 역시 도입될 예정이다. 전용면적 59 ~ 84㎡, 총 1338가구 규모다. 삼호건설은 제주 서귀포시 중문동 1756번 일대에 조성하는 'e편한세상 중문'을 분양 중이다. 한라산과 제주 바다가 인근에 위치하고 있어 쾌적한 주거가 가능하다. 전용면적 73~84㎡, 총 280가구 규모다. 정상명 산업2부 다른기사 보기 jsm7804@asiatime.co.kr [저작권자ⓒ 아시아타임즈. 무단전재-재배포 금지] - 띄어 쓰기를 포함하여 250자 이내로 써주세요. - 건전한 토론문화를 위해, 타인에게 불쾌감을 주는 욕설/비방/허위/명예훼손/도배 등의 댓글은 표시가 제한됩니다. 0 /250 등록 중요기사 [포토] “정부·여당 안전운임제 무력화 시도 좌시 않을 것” 코로나19 개량백신 접종 시작…"고위험군 접종 필수" [9월 항공실적] 성수기 지나자 해외여행객 ’뚝‘⋯국제선 8월 보다 14만명↓ [시승기] 아드레날린 '뿜뿜'…기아 'EV6 GT' [뒤끝토크] 5개월째 외친 항공 인력충원 요구⋯이젠 국회의 시간 "中 보고 있나"…K-배터리, 美 IRA·수입처 확대로 반격 타이밍 [포토] “정부·여당 안전운임제 무력화 시도 좌시 않을 것” [아시아타임즈=김영봉 기자] 민주노총 전국공공운수노동조합 화물연대본부(화물연대)가 11일 오전 서울 용산구 대통령 집무실 앞에서 '안전운임개악저지! 일몰제 폐지! 차종·품목확대! 화물연대 투쟁선포 기자회견'을 열고 총파업을 예고했다. 화물연대는 이날 "안전운임제 지속 및 품목확대에 대한 기존의 합의를 뒤집고 안전운임제를 폐지, 무력화 하려는 정부여당의 시도를 좌시 하지 않을 것"이라며 "이에 화물연대는 10월 22일 총파업 결의를 위한 조합원 비상총회를 개최하겠다"고 밝혔다. 국토교통부가 지난달 29일 민생안정경제특위에서 안전운임제가 시장경제원리에 반한다는 의견을 내면서다. 한편 '화물자동차 안전운임제'는 과로, 과속, 과적 운행을 방지하고 도로안전을 위해 필요한 최소한의 운임을 결정하는 제도다. 코로나19 개량백신 접종 시작…"고위험군 접종 필수" 코로나19 개량백신 접종 시작…예약한 날짜에 따라 진행 방역당국, 신규 백신인만큼 이상대응 체계 강화나서 전문가들 "신규 변이·재유행 등의 가능성 높아 접종 필요" [아시아타임즈=이재현 기자] 신종 코로나바이러스 감염증(코로나19) 개량백신 접종이 시작된다. 의학계에서는 면역저하자와 고령층 등 고위험군은 개량백신을 무조건 맞아야 한다고 강조했다. 11일 코로나19 예방접종추진단에 따르면 이날부터 모더나가 개발한 오미크론 BA.1 변이 기반 2가 백신을 활용한 동절기 코로나19 추가 접종이 시작된다. 이번 접종에 사용되는 개량백신은 코로나19 바이러스 초기주를 기반으로 개발된 기존 백신과 다르게 오미크론 변이 바이러스에도 대응이 가능하도록 개발됐다. 중앙방역대책본부는 개량백신은 기존백신 대비 초기주에는 1.22배, BA.1에 1.75배, BA.4와 BA.5에 1.69배 높은 중화능을 보였다. 중화능은 바이러스를 무력화해 감염을 예방하는 능력을 뜻한다. 지난달 27일부터 시작된 사전예약을 통해 예약한 사람은 이날부터 예약한 날짜에 따라 순차적으로 접종이 시작된다. 면역저하자, 요양병원·시설 등 감염취약시설 입원·입소·종사자, 60세 이상 고령층 등 건강취약계층이 우선 접종 대상이다. 18세 이상 60세 미만 기초접종 완료자도 잔여백신에 한해 개량백신 추가접종을 받을 수 있다. 사전예약 없이 당일 접종을 받으려면 의료기관에 유선으로 연락해 예비명단에 올려 당일 잔여 백신을 접종받을 수 있으며 카카오톡이나 네이버 등 소셜네트워크서비스(SNS)를 통한 잔여백신 확인·예약은 12일 오후 4시부터 가능하다. 방역당국은 개량백신이 새로운 백신인 점을 고려해 시행 초기에는 이상 반응에 더 적극적으로 대응하기로 했다. 접종자 중 문자 수신에 동의한 경우 접종 후 1주일간 능동감시를 통해 건강 상태와 일상생활 문제 여부 등을 확인하도록 하고 접종자 전원을 대상으로 접종 후 3일차 주의 사항과 이상반응시 조치 사항 등을 재안내할 계획이다. 또한 방역당국은 독감백신과 동시에 접종해도 된다고 밝혔다. 신규 변이·재유행 등 가능성 높아…고위험군 접종 필수 전문가들은 올 겨울에 코로나19이 재유행할 가능성이 높기 때문에 고위험군 접종이 필수라고 조언한다. 앞서 앤서니 파우치 국립알레르기·전염병연구소(NIAID) 소장은 미국 언론과의 인터뷰에서 올 겨울에 더 위험한 코로나19 변이가 출현할 수 있다고 경고했다. 미국 질병예방통제센터(CDC)가 발표한 데이터를 보면 지난주 보고된 환자의 79.2%는 오미크론 하위 변이인 BA.5에 감염됐다. 하지만 BA.5와 비슷한 시점에 출현한 BA.4에서 파생된 BA.4.6은 13.6%로 높아졌다. 이같이 기존에 유행하던 코로나에서 변이되거나 아예 새로운 변이가 발생될 가능성을 배제할 수 없다는 것. 국내 전문가들도 같은 의견을 내놓았다. 엄중식 가천대병원 감염내과 교수는 "올해 1분기에 겪었던 대규모 유행이 발생할 가능성은 줄었지만 작은 규모의 유행이 반복될 가능성이 높다"며 "코로나19가 풍토병이나 계절성 질환으로 바뀔 자리매김할 가능성이 높은 만큼 고위험층은 백신 접종이 필수"라고 강조했다. 한 의학계 관계자는 "2가 백신은 지금 유행하는 오미크론을 예방할 수 있기 때문에 효과적"이라며 "향후 어떠한 변이가 나올지는 모르지만 가장 유행하는 백신을 맞는 것이 효과적"이라고 설명했다. [9월 항공실적] 성수기 지나자 해외여행객 ’뚝‘⋯국제선 8월 보다 14만명↓ 9월 항공 여객 수 400만8362명⋯국내선 및 국제선 여객 수 전월 대비 모두 감소 국제선 여객 수는 121만4867명으로 8월 135만4803명 보다 10.3%↓ 성수기 지난 데다 환율 상승 등이 국제선 여객 수 감소에 영향 [아시아타임즈=김영봉 기자] 여름휴가철이 지나자 9월 해외여행객 수요가 전월 대비 10% 감소한 것으로 나타났다. 9월 입국 전 PCR검사 의무화가 폐지되며 국제선 여객 수요를 끌어 올릴 것으로 전망했지만 효과가 크지 않은 것이다. 휴가시즌이 지난 데다 높은 환율 등이 상승세를 꺾은 것으로 분석된다. 10일 아시아타임즈가 국토교통부 항공정보포털시스템의 9월 항공사별 운송실적을 분석한 결과 대한항공과 아시아나항공, 제주항공, 진에어, 티웨이항공, 에어부산, 에어서울, 에어로케이, 플라이강원, 에어프레미아 등 10개 항공사의 여객 수는 400만8362명(국내/국제 포함)으로 지난 8월 454만1753명 보다 11.7%(53만3391명) 감소했다. 이중 국내선 여객 수가 279만3495명으로 전월 318만6950명 보다 12.3%(39만3455명)감소했고, 국제선 여객 수는 121만4867명으로 한 달 전 135만4803명 보다 10.3%(13만9936명) 줄었다. 항공사별로 9월 여객수를 보면 대한항공은 102만8756명(49만5863명/53만2893명)으로 전월 109만8278명(56만9110명/52만9168명) 보다 6.3% 감소했다. 다만 국제선 여객 수는 국내 항공사 중 유일하게 전월 대비 0.7% 소폭 증가했다. 아시아나항공은 9월 여객 수가 72만8971명(39만3251명/33만5720명)으로 지난 달 80만767명(45만2737명/34만8030명) 보다 8.9%줄었다. 이중 국제선 여객 감소율은 3.5%로 나타났다. 저비용항공사(LCC)들도 여객 수가 전월대비 대부분 감소했다. 특히 국제선 여객 수는 코로나19 이후 처음으로 10만명을 돌파하며 상승세를 탔지만, 9월에는 감소세가 뚜렷했다. 제주항공은 9월 58만7543명(49만4272명/9만3271명)을 수송하며 8월 71만3305명(58만7562명/12만5743명) 대비 17.6% 줄었고, 국제선 여객 수는 한 달 사이 25.8% 급감했다. 이어 진에어는 56만2795명(49만2637명/7만158명)으로 전월 64만6063명(53만7725명/10만8338명) 보다 12.8% 감소했다. 국제선 여객 수는 35.2%나 줄었다. 티웨이항공은 49만3536명(40만280명/9만3256명)으로 지난달 50만9810명(39만788명/11만9022명) 보다 3.2% 줄었다. 이중 국제선 여객 수는 21.6% 감소했다. 에어부산과 에어서울의 여객 수도 모두 줄어들었다. 에어부산의 경우 9월 여객 수는 39만9230명(34만4554명/5만4676명)으로 전월 52만6057명(45만3333명/7만2724명) 24.1% 줄었고, 에어서울은 14만549명(11만5658명/2만4891명)으로 8월 16만2030명(12만328명/4만1702명) 보다 13.2% 감소했다. 이외 플라이강원은 9월 3만632명(2만9496명/1136명), 에어로케이는 2만7484명(국내선)을 수송했고, 국제선만 운항하는 에어프레미아는 8864명을 수송하는데 그쳤다. 항공업계 관계자는 “7월~8월 휴가철이 끝나고 9월은 원래 여객 수가 줄어드는 달”이라면서도 “입국 전 PCR 검사 의무화가 폐지되면서 국제선 여행객이 늘어날 것으로 봤는데 오히려 줄어든 것은 아쉬운 대목”이라고 말했다. 이 관계자는 “9월부터 환율이 높아진 영향도 있는 것 같다”면서 “10월은 연휴기간이 많고, 일본의 무비자 입국이 풀려 여행수요가 늘어날 것으로 기대하고 있다”고 덧붙였다. 한편 9월 총 여객 수는 전년 동월 296만3818명(253만583명/16만3235명)보다 48.7% 늘었고, 국제선 여객 수는 644.2% 급증했다. 전문가의 목소리 나하나 칼럼 워라밸이 가져온 예술의 대중화 정균화칼럼 Simple Living 박창진 칼럼 민생 위기 속 정치의 역할 김용훈 칼럼 국가재정의 전략적 운용 신문사소개 개인정보취급방침 이용약관 청소년보호정책 기사제보 제휴문의 공지.사고 서울특별시 중구 퇴계로31길 27 프라임빌딩 8층 대표전화 : 02-801-1800 FAX : 02-801-1819 제 호 : 아시아타임즈 정기간행물번호 : 서울 가 09927 등록일 : 2008-07-16 인터넷신문 : 서울 아 00624 발행인 대표이사 : 조용하 편집국장 : 송남석 청소년보호관리책임자 : 조주현 『열린보도원칙』 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 : 김재현 / TEL : 02-801-1842 / email : s891158@asiatime.co.kr 본 콘텐츠의 저작권은 아시아타임즈 또는 제공처에 있으며 이를 무단 이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. Copyright ⓒ 2019 아시아타임즈 All rights reserved. email : asiatimes@asiatime.co.kr HOME LOG IN Copyright ⓒ 2019 아시아타임즈 All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 개별관광 ‘맞춤형 온라인마케팅’ 강화-국민일보 시사 시사 &gt; 전체기사 제주도, 개별관광 ‘맞춤형 온라인마케팅’ 강화 유명 유튜버 활용 등 마케팅전략 온라인으로 전환 입력 : 2019-06-23 15:17 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도가 개별관광객을 겨냥한 ‘맞춤형 온라인 마케팅’ 강화에 본격적으로 나선다. 사진은 성산일출봉을 찾은 관광객들(제주도 제공)제주도가 개별관광객을 겨냥한 ‘맞춤형 온라인 마케팅’ 강화에 본격적으로 나선다.제주도는 최근 관광 추세가 개별관광(FIT) 중심으로 변화함에 따라 소셜네트워크서비스(SNS) 및 유명 유튜버 활용, 온라인 마케팅 페스티벌 사업 추진 등을 통해 잠재적 개별관광 수요에 적극 대응할 계획이라고 23일 밝혔다도는 이를 위해 10만 이상 팔로워를 보유한 유명 유튜버의 제주체류 영상제작을 지원, 홍보효과를 극대화하고 있다.도는 또 페이스북·인스타·카카오스토리 등 유명계정을 활용한 소셜네트워크서비스 마케팅을 진행하는 한편 각 매체의 여행관련 유명계정 등을 통해 월별 테마 콘텐츠를 제작, 업로드하고 있다.지난달에는 ‘Jeju Marry me’를 테마로 웨딩관련 콘텐츠를 제작해 37만5000회의 조회수를 기록했고, 이달 중 ‘바람, 바람, 바람’을 주제로 여름레저·해양활동·여름 별미·알려지지 않은 비경 등을 선정해 홍보할 방침이다.도는 이와함께 연령대·이용시간·선호콘텐츠 등을 특정화해 네이버·카카오 등 포털에 파워콘텐츠 광고도 추진한다.도는 올해 사업별 콘텐츠에 대한 반응을 지속적으로 모니터링하고 분석한 후, 효율적인 마케팅이 이뤄질 수 있도록 내년 마케팅 계획에 반영할 예정이다.양기철 도 관광국장은 “아마추어 인터넷 유저를 대상으로 제주여행 온라인포스팅 공모전을 추진하고, 국내외 인플루언서 네트워크 페스티벌을 개최할 것”이라며 “초등학생부터 대학생까지 디지털 네이티브 대상 크리에이터 양성교육도 실시해 제주관광 서포터즈 활동을 개시할 것”이라고 밝혔다.제주=주미령 기자 lalijoo@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 ‘naver.pay’ 주소, 속았다…8천만원 사기친 피싱사이트 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 월즈 우승자 ‘크라운’ 이민호 젠지 아카데미 강사 합류 ‘여순특별법’ 시행 후 첫 합동추념식, 19일 광양서 개최 포항시, 자연재난 피해 공동주택 복구비용 최대 5억원 지원 성 상납 무고 혐의 이준석, 2차 경찰 소환… 경찰 “조만간 결론” 포천시, 신재생에너지 융복합지원사업 공모 선정 특별법 개정 “너무 느리다”…제주도, 포괄적 권한이양 추진 남양주시 ‘불법 주정차 단속 CCTV 통합 시스템’ 운영 의정부서 14~16일 ‘2022 아시아 모델 페스티벌’ 열려 경남도, 가을 행락 철 야영 장 인명 사고 예방 총력 올 무역적자 327억 달러…반도체·대중 수출 ‘먹구름’ 아시아엔 적수 없다… 韓펜싱 U-23 亞선수권 7연속 우승 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지</t>
+  </si>
+  <si>
+    <t>제주도, 개별관광객 타깃 맞춤형 홍보 강화 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 개별관광객 타깃 맞춤형 홍보 강화 등록 2019.06.19 10:29:46 작게 크게 제주도청 전경.【제주=뉴시스】강정만 기자 = 제주특별자치도는 최근 관광트렌드가 개별관광(FIT) 중심으로 변화함에 따라 SNS 등 온라인 매체를 활용해 맞춤형 홍보를 강화한다고 19일 밝혔다 도는 유명 유튜버를 활용하거나, SNS 바이럴마케팅, 온라인 마케팅 페스티벌 사업 추진드으로 잠재적 개별관광 수요에 적극 대응할 계획이다. 이를 위해 유명 유투버들의 제주의 계절별 먹방, 명소, 일상 액티비티 등을 테마로 한 영상물 제작과 방송을 지원하기로 했다. 또 페이스북, 인스타, 카카오스토리 등 유명계정을 활용한 SNS 바이럴마케팅도 추진한다. 이와 함께 아마추어 인터넷 유저를 대상으로 제주여행 온라인포스팅 공모전을 추진하고 국내외 인플루언서 네트워크 페스티벌을 개최할 계획이다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3 '망값 협상'에 통행세 횡포? 구글의 이중잣대 4文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 5예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 김창규 제천시장 47개 공약 확정…"내년 1월 조직개편" 범한퓨얼셀, 12일 기업설명회 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" 울산 북구, 제6회 구민대상 후보자 접수…3개부문 시상 'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 충남대 개교 70주년 기념 '70년 CNU의 리더스피릿' 발간 [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" 'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 범한퓨얼셀, 12일 기업설명회 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 김태현 "부과체계 개편, 연금 소득 고려 부족 아쉬워" [창사기획-인구절벽]②전국 시군구 228곳…절반넘는 113곳이 '소멸직전' 위기 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" "집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 김창규 제천시장 47개 공약 확정…"내년 1월 조직개편" 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 울산 북구, 제6회 구민대상 후보자 접수…3개부문 시상 충남대 개교 70주년 기념 '70년 CNU의 리더스피릿' 발간 김대중 교육감 "내년부터 16개군 초등생…20만원 교육수당 지급" 김해시, 올해 계약심사 35억 절감…부실시공 예방 "집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 울산시교육청, 사립유치원 42개원 종합 지도·점검 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 7예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>양근성지</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 서비스로 옥돔구이, 한치 물회 제공 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 13:05 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 서비스로 옥돔구이, 한치 물회 제공 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME LIFE in BIZ 일반 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 해물갈치조림에 서비스로 옥돔구이, 한치 물회 제공 곽종현 기자 승인 2019.06.29 08:00 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × (사진제공=기원뚝배기) 답답한 일상에서 벗어나 힐링을 생각한다면 여행만큼 좋은 것이 없다. 국내 여행지 가운데 제주도는 깨끗한 바람과 함께 이색적인 풍경과 먹거리 등이 풍부해 몸과 마음을 힐링시킬 수 있는 시간이 가능하다. 소중한 가족과 친구, 연인과 함께 때 묻지 않은 자연 속에서 즐기는 휴식과 낭만과 함께 쏟아지는 밤하늘의 별빛을 바라보며 오순도순 이야기꽃을 피우거나 다 함께 음식을 함께 나눠먹는 소중한 기억은 여행에서만 얻을 수 있는 소중한 추억이다. 요즘 제주도는 수국꽃이 한창이다. 서귀포시 안덕면 사계리 해안에 있는 종상화산인 산방산으로 향하는 길목을 지나다 보면 만날 수 있는 수국길은 도로 위로 길게 분포되어 있어 산방산을 배경으로 사진 찍기 좋은 곳이다. 멀리서 보면 마치 아이스크림을 떠놓은 듯 둥글게 피어올라 있어 화사한 웃음을 자아내는 수국을 만나면 누구나 사진을 담기에 여념이 없게 된다. 핑크빛부터 하늘색까지 다양한 색감을 볼 수 있는 사계리 수국길은 드라이브를 즐기며 꽃구경을 하기에 좋은 곳이다. 드라이브를 하면서 꽃구경을 했다면 인근에 산방산, 용머리해안, 송악산 둘레길, 형제 해안도로 등의 관광지가 있어 둘러보는 것도 좋다. 특히 산방산으로 향한 후 형제 해안도로를 따라 달리다 송악산 둘레길까지 둘러보면 마음까지 상쾌해진다. 제주에는 해물갈치조림이 인기다. 맛집 탐방은 여행의 또 다른 즐거움을 선사하게 되는데 제주도 서귀포 중문 맛집 '기원뚝배기'는 제주 인근 바다에서 갓 잡은 싱싱한 생갈치로 요리한 해물갈치조림이 주력 메뉴다. 갈치를 비롯한 해산물은 독특한 비린 냄새를 갖고 있어 이 냄새를 잡지 못하면 특유의 담백한 맛을 느낄 수 없다. 그래서 기원뚝배기는 천연 약초를 숙성한 양념을 사용하여 갈치의 비린 냄새를 잡아 맛이 아주 고소하다. 양념은 맛은 물론 건강에도 좋아 밥에 양념을 비벼 먹는 손님들도 많다. 해물갈치조림을 주문하면 옥돔구이와 성게국, 그리고 여름철 별미인 한치 물회가 무료로 서비스 제공된다. 그리고 해물갈치조림에는 살아 있는 싱싱한 문어와 새우, 생전복 등이 들어가기 때문에 무료로 제공되는 옥돔구이, 한치 물회, 성게국과 함께 푸짐한 식사가 가능하다. 여름에는 역시 물회가 인기다. 기원뚝배기의 한치 물회에는 오이, 배, 미나리, 파프리카 등 다양한 야채가 들어가 한치와 조화된 맛을 느낄 수 있다. 한치 물회에 사용되는 육수는 5가지의 과일과 매실 효소를 숙성시킨 것으로 독특하면서 시원한 맛이 일품이다. 한치 물회는 해물갈치조림뿐만 아니라 통갈치조림정식 A세트 혹은 B세트를 주문해도 서비스로 제공된다. 제주 맛집 ‘기원뚝배기’는 통갈치조림정식 A세트 메뉴를 주문해도 옥돔구이와 성게국이 추가로 서비스 제공한다. 실제 통갈치조림정식 A세트의 기본 상차림에 옥돔구이와 성게국이 나오지만 손님들이 푸짐하게 식사할 수 있도록 옥돔구이와 성게국을 하나씩 더 상에 올리고 있다. 제주도 중문관광단지 맛집 기원뚝배기는 오랜 시간 끓여서 국물이 진한 각종 전골 메뉴와 아침식사 메뉴도 준비하고 있다. 실제 연중 무휴로 오전 7시부터 오후 10시까지 영업하고 있으며, 셔틀버스가 있어 호텔 픽업서비스도 무료로 제공하고 있으며, 넓은 전용 주차장도 마련되어 있다. 제주도 맛집 기원뚝배기는 국내산 재료를 직접 구입하여 밑반찬을 만들고 있다. 10여 가지의 밑반찬은 전라도 엄마의 손맛과 정성을 담아 손님 상에 올리고 있으며, 기원뚝배기의 상호에는 손님들이 정갈한 상차림 속에서 맛있게 식사하기를 바라는 업소 대표의 따뜻한 마음이 깃들어 있다. 곽종현 기자  veryordinary@naver.com 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 포토뉴스 제주해경, 겨울철 어선 화재 예방 나선다 道 자치경찰단, 태풍 피해 교통신호기 복구에 예비비 투입 2022년도 제주사랑 희망나눔 바자회 제61회 탐라문화제 퍼레이드 제주 전자여행허가제 시행 한 달…입국 불허율 38.4%→3.2% '성과' "동부하수처리장 인근 신규 동굴 추정 흔적 발견…공동조사 요구" 가을 빛으로 물들어가는 억새 처벌 규정도 미흡…개인형 이동장치 면허 도입 등 제도 개선 필요 2022 글로벌 제주상공인 리더십 포럼 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 제주해경, 겨울철 어선 화재 예방 나선다 道 자치경찰단, 태풍 피해 교통신호기 복구에 예비비 투입 2022년도 제주사랑 희망나눔 바자회 제61회 탐라문화제 퍼레이드 제주 전자여행허가제 시행 한 달…입국 불허율 38.4%→3.2% '성과' "동부하수처리장 인근 신규 동굴 추정 흔적 발견…공동조사 요구" 가을 빛으로 물들어가는 억새 처벌 규정도 미흡…개인형 이동장치 면허 도입 등 제도 개선 필요 2022 글로벌 제주상공인 리더십 포럼 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회장배 아마추어 친선골프대회 성황리 막 &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 13:05 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도관광협회장배 아마추어 친선골프대회 성황리 막 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 제주도관광협회장배 아마추어 친선골프대회 성황리 막 기자명 이동건 기자					(dg@jejusori.net) 입력 2019.06.20 14:49 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 2019 제주도관광협회장배 아마추어 친선골프대회가 성황리에 마무리됐다.지난 19일부터 2일간 열린 올해 대회는 로데스카이힐CC, 아덴힐리조트&amp;골프클럽, 사이프러스골프&amp;리조트 등 3곳에서 열렸으며, 전국에서 450여명이 참가했다. 올해 9회째 맞은 골프대회는 수도권·영남·호남 지역에 거점을 둔 제주관광 홍보사무소 지역별 네트워크를 강화, 제주 골프여행 상품 개발 등 고부가가치 레저·스포츠 상품 개발을 위해 열렸다.  대회 경품으로는 호텔숙박권, 렌터카이용권, 식사이용권, 골프이용권, 제주 토산품 등 제주 관광 상품이 걸렸다. 제주 관광상품을 경품으로 얻은 참가자들이 추후 다시 제주에 방문토록 한다는 계획이다. 관광협회 관계자는 “도내 관광업계와 함께 다양한 여행상품을 개발하고, 적극적인 비즈니스 마케팅을 지원하는 등 수익 증대에 기여하겠다”고 말했다. 이동건 기자 dg@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 제주답게 만들기를~~ 2 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 3 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 4 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 5 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 6 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 7 못간다 8 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 9 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 10 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>효리의단골집 ‘이조은식당’ 현지인피셜 제주도 중문 관광단지 맛집 갈치정식 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>제주도관광협회 등반동호회, 관광상품 개발 촉진 현장체험 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도관광협회 등반동호회, 관광상품 개발 촉진 현장체험 파이낸셜뉴스입력 2019.06.15 20:18수정 2019.06.15 20:18 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 15일 카멜리아힐·세리월드에서 진행 세리월드 카트체험 [제주=좌승훈 기자] 제주도관광협회 등반동호회(회장 박지혜 이음새 대표)는 15일 제주도내 관광사업체 임직원 80여명이 참가한 가운데 관광상품 개발 촉진을 위한 카멜리아힐·세리월드 체험행사를 진행했다. 서귀포시 안덕면에 있는 카멜리아힐은 동양에서 가장 큰 동백수목원이다. 가을부터 봄까지 시기를 달리해서 피는 80개국의 동백나무 500여 품종 6000여 그루가 울창한 숲을 이루고 있다. 세리월드는 서귀포시 법환동에 있는 체험관광 테마파크다. 이곳에선 카트레이싱·승마·미로공원·유로번지 체험을 츨길 수 있다. 이날 참가자들은 카멜리아힐에서 수국축제 체험을, 세리월드에서 미로공원과 포뮬러(F-1)레이싱카를 본떠서 만든 카트체험을 했다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>"제주도 장애인주차구역 위반, 관광지 인근 등 특정지역 집중" | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 "제주도 장애인주차구역 위반, 관광지 인근 등 특정지역 집중" 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 "제주도 장애인주차구역 위반, 관광지 인근 등 특정지역 집중" 송고시간2019-06-02 12:00 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 권수현 기자 기자 페이지 국가정보자원관리원, 빅데이터 분석으로 최적 단속경로 제시 장애인 주차구역 위반(CG) [연합뉴스TV 제공] (서울=연합뉴스) 권수현 기자 = 제주도에서 발생하는 장애인전용주차구역 위반 민원의 절반 이상이 관광지 인근 대형마트 등 특정 지역에 집중된 것으로 나타났다. 국가정보자원관리원은 제주도 내 장애인전용주차구역 관련 빅데이터를 이용해 불법 주정차가 주로 발생하는 지역과 시기, 차량 유형 등을 분석한 결과 이같이 나타났다고 2일 밝혔다. 국가정보자원관리원은 제주도의 의뢰로 최근 3년(2016∼2018년)간 도내 장애인주차구역 위반 신고 민원 3만건과 과태료 부과 내역 1만8천건, 차량등록현황 38만건, 업소 정보 250만건 등을 분석했다. 광고 분석 대상 기간 모두 4천40여곳에서 2만2천500여건의 민원이 발생했는데 발생 지역의 약 10%에 전체 민원의 65%에 달하는 1만4천634건이 집중됐다. 주요 관광지·리조트와 가까운 이마트 서귀포점에서만 전체 민원의 2.7%인 617건의 민원이 발생하는 등 특정 지역에 장애인주차구역 위반이 몰리는 경향이 나타났다. 계절별로는 관광 성수기인 여름철(6∼8월)에 전체 민원신고의 28.8%가 발생했고 겨울철(12∼다음 해 2월) 발생 민원은 20.5%였다. 민원 증가세도 관광지 인근과 아닌 곳의 차이가 나타났다. 제주시의 경우 장애인주차구역 위반 민원이 2016년 3천943건에서 2018년 6천805건으로 72.6% 증가했으나 관광지가 가까운 서귀포시는 같은 기간 1천70건에서 2천999건으로 180.1% 늘었다. 서귀포시 안에서도 분석 기간 중 리조트가 개장한 안덕면(49건→511건)과 아파트단지가 들어선 대천동(81건→438건)의 민원 증가세가 두드러졌다. 위반 차량 유형을 보면 서귀포시의 경우 렌터카 비율이 26.4%로 제주시(13.2%)보다 높았다. 특히 성산 일출봉이 있는 서귀포시 성산읍과 중문관광단지가 있는 예래동에서 렌터카 비율이 각각 72%와 51%로 높게 나타났다. 국가정보자원관리원은 이러한 분석결과를 토대로 지역·계절별 주요 단속지점을 도출하고 가장 효율적인 단속경로 32개를 구성해 '최적 단속지도'를 제작했다. 민원 업무량과 빈도에 따라 장애인 보조인을 재배치하는 방안도 수립해 3일 제주도청서 분석결과 보고회를 진행한다. inishmore@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2019/06/02 12:00 송고 #장애인주차구역 #제주도 #관광지 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 러시아 출신 억만장자 벤처투자자, 전쟁 반대하며 시민권 포기 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 선우은숙, 4살 연하 아나운서 유영재와 재혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 23 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 10 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>‘관찰카메라24’ 남이섬, 제주도 다음 외국인이 가장 많이 찾는 단일 관광지 : 국제신문 2 본문 바로가기 페이스북 트위터 카카오채널 유튜브 로그인 회원가입 지면보기 초판보기 구독신청 주요메뉴 뉴스 전체기사 주말엔 근교산 맛 여행 오피니언 최신칼럼 사설 도청도설 국제칼럼 외부칼럼 포토·동영상 동영상종합 포토종합 게시판 알림 · 사고 독자투고 독자제보 회사소개 구독신청 전화안내 광고안내 부산말사전 다큐멘터리 ‘청년’ 사회 정치 국제 경제 해양수산 문화 주말엔 근교산 스포츠 기획 인터뷰 TV국제 비디토리 국제유튜브 전체기사 대통령실 국회/정당 남북한 선거 지방정치 국방 정책 외교 전체기사 부동산 증권/금융/보험 쇼핑/유통 기업/창업 구인구직 복권 해양수산 자동차 항공 조세 통상/무역 정책 전체기사 사건사고 교육 보건/복지 환경 교통 날씨 법조 노동 행정 미디어 전체기사 미국 일본 중국 중동 유럽 기타 전체기사 미술 책/문학 음악/음반/공연 연예 영화/방송 문화재 종교 바둑 전시 만화 전체기사 건강정보 여성생활 스타일 트렌드 게임 맛집 레저여행 전체기사 환경 과학 IT 전체기사 부산 경남 대구경북 비영남권 산행후기 산행사진 산행안내 자유게시판 강동진 칼럼 이지훈 칼럼 김정현 칼럼 강명관 칼럼 전체기사 사설 칼럼 시론 도청도설 데스크시각 기자수첩 독자칼럼 제언 기고 전체보기 주제토론방 자유게시판 공지사항 활동현황 세상읽기 해양수산칼럼 메디칼럼 기명칼럼 감성터치 조영석의 음악이야기 최태호의 와인 한 잔 박상현의 끼니 황정수의 그림산책 김지윤의 우리음악 이야기 화요경제 항산항심 과학에세이 CEO칼럼 아침숲길 인문학칼럼 청년의 소리 기고 뉴스와 현장 기자수첩 옴부즈맨칼럼 독자권익위원회 ‘관찰카메라24’ 남이섬, 제주도 다음 외국인이 가장 많이 찾는 단일 관광지 최지수 기자 zsoo@kookje.co.kr |   입력 : 2019-06-14 19:49:56 글자 크기 페이스북 공유 트위터 공유 카카오스토리 공유 네이버 공유 인쇄 기사 주소 복사 스크랩 14일 방송되는 채널A ‘관찰카메라24’ 에서는 연간 330만 명의 관광객이 찾는 국민 관광지 남이섬의 새로운 매력을 밀착 관찰한다. 연인들의 데이트 성지이자 대표적인 가족 여행지로 손꼽히는 남이섬은 겨울연가를 비롯한 유명 드라마의 촬영지로 알려져 국내뿐 아니라 해외에서도 유명한 관광지다. 이날 방송에서는 메타세쿼이아 길을 따라 자연을 즐기는 것 외에 힐링과 먹거리, 즐길 거리가 모두 모인 업그레이드된 남이섬의 새로운 트렌드를 관찰하기 위해 관찰카메라가 출동한다.먼저 남이섬은 봄·여름·가을·겨울 색다른 매력을 뽐내 ‘한국관광 100선’에 4회 연속 선정될 만큼 사시사철 푸른 잣나무 길부터, 벚나무 길, 은행나무 길, 자작나무 길 까지 다양한 숲길이 관광객을 반긴다. 이렇듯 섬 전체 크기인 46만m²에 걸친 드넓은 자연 속에서 관광객들은 새롭게 마련된 4인용 패밀리 자전거와 친환경 전기 자전거로 즐길 수 있다. 자연 환경을 즐긴 후에는 유리를 녹여 만드는 목걸이 유리공예를 직접 만들어 볼 수 있어 새로운 즐길 거리를 제공한다.이어 외국인 관광객을 끌어 모으는 남이섬의 매력을 전격 공개한다. 제주도 다음으로 외국인이 가장 많이 찾은 단일 관광지가 된 남이섬에는 연간 무려 120만 명 이상의 외국인 관광객들이 찾아올 정도다. 이런 이유로 남이섬에는 한국의 문화를 제대로 느낄 수 있는 ‘파전’과 흔드는 ‘추억의 도시락’ 등을 파는 한식점부터 타문화권의 외국인들도 즐길 수 있는 ‘할랄’인증 아시안 패밀리 레스토랑까지 다양한 음식점들이 즐비하고 있다.남이섬의 또 다른 매력은 모든 관광객이 다 빠진 후의 저녁 풀 사이드 파티를 통해 볼 수 있다. 은은한 조명 아래 워터 가든에서 열리는 이 파티는 마치 동남아로 여행 온 듯한 느낌을 준다. 뿐만 아니라 시원한 맥주와 치킨 그리고 바비큐까지 준비되어 있어 색다르고 황홀한 풍경을 만나볼 수 있다.여기에 남이섬 근방에서는 드넓게 펼쳐진 워터 파크는 물론 길이 11m라는 초대형 미끄럼틀과 바나나보트, 플라이피시, 웨이크보드 등 북한강을 따라 다양한 수상레저를 온종일 즐길 수 있다. 또한 이날 방송에서는 의류대여부터 픽업 서비스까지 가능한 남이섬 주변 즐길 거리까지 함께 확인할 수 있다.한층 업그레이드 된 다채로운 남이섬의 매력을 공개할 채널A ‘관찰카메라24’의 ‘힐링 여행지! 업그레이드 남이섬 탐방기’ 편은 14일 금요일 저녁 8시 20분에 방송된다.대한민국을 관찰하라! 트렌드와 궁금함이 모인다면 모든 현장, 모든 테마, 그 어떤 인물도 카메라에 담는다! 본격 인해전술 다큐멘터리 ‘관찰카메라24’는 매주 금요일 저녁 8시 20분 방송. 최지수 기자 zsoo@kookje.co.kr ⓒ국제신문(www.kookje.co.kr), 무단 전재 및 재배포 금지 ▶[국제신문 페이스북] [국제신문 인스타그램] ■ 푸틴 “우크라이나 자포리자 원전 국유화” ■ 부산록페 3년 만에 찾았는데…휴대폰·음향 먹통에 분통만 ■ “부울경 더 강력한 특별연합 형태로 메가시티 결성을” ■ 근무복 입고 식당서 소주 한 병…부산교통공사 직원 2명 징계 의결 ■ 하동군 국내 최대 ‘성혈’, 학술가치 높아 보존추진 ■ 우크라이나 점령지 러시아 합병…푸틴, 서명으로 공식화 ■ 김해, 낙동강권 지자체 상생모델 만든다 ■ 놀이마루에 교육청? 학생·시민공간 대안 논의는 없었다 ■ 현대백화점, 에코델타시티 유통부지 매입…아울렛 서나 ‘금융위기 연구 기여’ 버냉키 등 미국 3명 노벨경제학상 크름대교 폭발에 보복…러시아, 우크라 곳곳 공습 ‘지석’ ‘왕자’ 구하는 주체적 여성…스칼렛이 선사할 마법 기대하세요 ‘우영우’ 박은빈 아시아콘텐츠어워즈 2관왕 시내·공원 야외상영 인파…BIFF 예전의 열기 되살아났다 “스크린 독과점 대기업 상영·배급 제한 규제 필요” 천우희 “부산 3대 떡볶이 먹고 싶어” 정지연 감독 “그녀의 연기 놀라워” 벨라루스 독재 맞선 인권 활동가, 러-우크라 반전단체와 공동수상 “송강호 좋아요…언어 해결되면 한국 영화 찍고파” ‘죽어도 자이언츠’ 본지 제작 부산야구 40년 다큐 개봉박두 뭐 볼까…오늘의 TV- 2022년 10월 6일 노벨 물리학상 ‘양자역학 권위자’ 아스페·클라우저·차일링거 일본 신칸센 멈추고 주민 대피령…삿포로·아오모리 등 혼비백산 ‘수리남’의 하정우 우리 동네 사람들이 만든 영화, BIFF에서 데뷔한대요 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 오늘이슈 부산국제영화제 2030 부산엑스포 오늘의 BIFF 많이 본 뉴스 종합 정치 경제 사회 스포츠 1"백신 못 맞게 말릴 걸…" 엄마 유골함 앞에서 회한의 눈물 2부산 조정지역 해제 후 첫 분양…브랜드아파트 ‘착한 가격’에 공급 3‘보행하려는 사람의 기준’ 우회전 운전자는 아직 헷갈린다 4"가족 보살피며, 한국도 지키러 간 형은 나의 영웅" 5“아미 떴다” 달아오른 부산 관광·유통업계 6부산 아파트 매매량 10년 만에 최저 7[이준영 기자의 전지적 롯데 시점] ‘포스트 이대호’ 한동희뿐?…거포자원 더 키워라 8디자인진흥원이 키운 육아앱, 5억 투자 낳았다 9이재명 '일본군 주둔설'에 정진석 "조선 일본군 침략으로 망했나?" 10정부, “2025년까지 HMM 민영화 완료” 1이재명 '일본군 주둔설'에 정진석 "조선 일본군 침략으로 망했나?" 2野 "조선 왜 망했는가" 발언에 여론 싸늘..."이완용도 애국자?" 3장낙대교 건설에 학회서 퇴짜맞은 논문 환경영향평가서 인용 4국감 2주차 격전지 법사위...尹 '대감게이트'vs文 '회전문인사' 5尹 "핵 위협 앞에서 어떤 우려도 정당화 안돼" 6최근 5년간 부산시 해킹시도 건수 서울보다 많다 7BNK 회장이 아들이 재직중인 한양증권에 채권 몰아줬다는 의혹 제기 8北 저수지 발사장, 전투기 150대 비행 공개..."훈련 내용 이례적" 9유승민 떨어뜨린 불씨에 달아오른 안철수 나경원...공세 치열 10북한 핵위협 노골화, 전투기 150대 시위…남북 강대강 대치 1부산 조정지역 해제 후 첫 분양…브랜드아파트 ‘착한 가격’에 공급 2“아미 떴다” 달아오른 부산 관광·유통업계 3부산 아파트 매매량 10년 만에 최저 4디자인진흥원이 키운 육아앱, 5억 투자 낳았다 5정부, “2025년까지 HMM 민영화 완료” 6공감 이끄는 무대, 3세대 엑스포로 전환…부산이 나아갈 길 7쇠락 위기 속 세계박람회…공정한 역사관 바탕으로 과거의 열기 되찾아주길 8부산시, 관광객 전용 동백전 출시 9우대빵부동산 인력 채용 나선다 10올해 누계 무역적자 300억 달러 돌파…1~10일 수출 20%↓ 1"백신 못 맞게 말릴 걸…" 엄마 유골함 앞에서 회한의 눈물 2‘보행하려는 사람의 기준’ 우회전 운전자는 아직 헷갈린다 3"가족 보살피며, 한국도 지키러 간 형은 나의 영웅" 4장기미제 양산 사송IC 청신호…나동연 시장 취임 100일 성과 5오미크론 변이 대응 개량백신 접종 시작...이상반응은? 6BTS 글로벌콘서트 한 치의 빈틈 없이 7부울경 아침 찬공기 유입...경남 북서 내륙 서리까지 8오늘의 날씨- 2022년 10월 11일 9[박기철의 낱말로 푸는 인문생태학] &lt;585&gt; 분화와 분류 ; 여섯 가지 킹덤 10지난주 부산 코로나19 확진 직전주 보다 20% 이상 ↓ 1[이준영 기자의 전지적 롯데 시점] ‘포스트 이대호’ 한동희뿐?…거포자원 더 키워라 220살 김주형 PGA 2승 달성…‘골프 황제’ 우즈보다 빨랐다 3김하성, 한국 빅리거 첫 PS 도루…샌디에이고 NLDS행 견인 4‘포스트 장미란’ 김수현 용상 한국 신기록 번쩍 5“조선의 4번 타자 눈물을 닦아요” 사직벌 울음바다 6“널 믿어라” “야구 더 집중을” 떠나는 이대호의 마지막 조언 7박민지 “나도 이제 가을의 여왕”…시즌 5승 올리며 ‘대세’ 굳히기 8김하성 침묵…샌디에이고, WC 2차전 패배 9에어로빅 차지원 무난히 2관왕…다이빙 우하람도 부상 딛고 金 10롯데 ‘외인 삼총사’ 내년에도 함께할래? 독자참여 게시판 독자투고  |  기사제보 인사 | 모임 | 개업 | 결혼 | 출산 | 동정 | 부고 산행안내  |  산행후기  |  산행사진 등산가이드  |  낚시가이드 [핫이슈] 연예인 결혼과이혼 ‘피겨여왕’ 김연아, 10월 성악가 고우림과 웨딩마치 ‘톱스타 커플’ 현빈-손예진 웨딩마치 클론 구준엽, 대만 배우 쉬시위안과 백년가약 페퍼톤스 이장원·가수 배다해 11월 백년가약…올초 첫 만남 동방신기 최강창민, 9월 결혼 “인생 함께하고픈 사람” ‘자유영혼’ 류승범, 외국인 여자친구와 결혼 “예비신부 곧 출산” 소지섭, 17살 연하 조은정과 결혼… 혼인신고 마쳐 DJ DOC 이하늘, 결혼 1년 4개월만 이혼 이병주 타계 30주기…새로 읽는 나림 명작 권력쟁탈 얽힌 연애와 역사…감각적 전개에 대중은 카타르시스 그 장면 여기서 찍었네 부울경 촬영명소 전통 차사발 본고장…영화 ‘취화선’ 등장해 세계에 이름 알리다 기획시리즈 국립 인간극장 그 장면 여기서 찍었네 부울경 촬영명소 박현주의 그곳에서 만난 책 부산형 오페라하우스 만들자 서부국과 함께하는 명작 고전 산책 수장고에서 찾아낸 유물이야기 이동순의 부산 가요 이야기 이병주 타계 30주기…새로 읽는 나림 명작 정익진 시인의 '무비셰프' 최원준의 음식 사람 박현주의 신간돋보기 [전체보기] 유불선 사상 아우른 ‘열자’ 外 관용 가치 입힌 독서와 토론 外 서상균의 그림으로 책 보기 [전체보기] 인간의 순리 신간 돋보기 [전체보기] 어린이를 위한 ‘진짜’ 놀이터 청력 잃고 겪게 된 차별의 벽 이 한편의 시조 [전체보기] 기도, 넘치는 날 /김용태 가로등 /전용신 이원 기자의 드라마 人 a view [전체보기] ‘수리남’의 하정우 ‘이상한 변호사 우영우’ 박은빈 이원 기자의 영화 人 a view [전체보기] ‘공조2: 인터내셔날’의 현빈 ‘비상선언’ 이병헌·송강호 이원 기자의 Ent 프리즘 [전체보기] 건강한 모습으로 연기하는 안성기를 기다리며 한국 영화 대표로 아카데미 가는 ‘헤어질 결심’ 조재휘의 시네필 [전체보기] 치솟는 영화 표값 타당한가 '군함도 감독판' 길이가 아닌 완성도 높은 감독판을 허하라 BIFF 리뷰 [전체보기] ‘지석’ 뭐 볼까…오늘의 TV- [전체보기] 뭐 볼까…오늘의 TV- 2022년 10월 11일 뭐 볼까…오늘의 TV- 2022년 10월 10일 방호정의 컬쳐 쇼크 &amp; 조크 [전체보기] 영화 ‘RRR-라이즈 로어 리볼트’ 힙합 시대의 뮤지컬 ‘해밀턴 Hamilton‘ 오늘의 운세- [전체보기] 오늘의 운세- 2022년 10월 11일(음력 9월 16일) 오늘의 운세- 2022년 10월 10일(음력 9월 15일) 오늘의 BIFF [전체보기] 오늘의 BIFF - 2022년 10월 11일 오늘의 BIFF - 2022년 10월 10일 조해훈의 고전 속 이 문장 [전체보기] 가난한 선비로서 먹는 것도 아까워 한 성호 이익 산속 가을비 풍경을 시로 읊은 유희경 알립니다 · 성우하이텍과 함께하는 제24회 부산마라톤대회 ‘버추얼 레이스’ · 제22회 최계락문학상 작품 공모 · 호우 및 태풍 피해 이웃 돕기 성금 모금 제휴사 부산스토리텔링협의회 부산과학기술협의회 걷고싶은부산 제휴서비스 국제신문대관안내 회사소개 전화안내 광고안내 구독신청 독자투고 기사제보 개인정보취급방침 언론윤리강령 고충처리 모바일국제신문 주소 : 부산광역시 연제구 중앙대로 1217대표전화 : 051-500-5114편집인 : 배재한발행인·인쇄인 : 윤규황 Copyright ⓒ kookje.co.kr All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 보양식 해물갈치조림에 서비스로 옥돔구이, 성게국 제공 &lt; 뉴스 투데이 &lt; 라이프 &lt; 라운지 &lt; 기사본문 - 대한금융신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 신문사소개 구독신청 로그인 회원가입 전체메뉴 버튼 최종편집 2022-10-11 13:07 (화) 기사검색 검색 최신뉴스 이복현 “불법 공매도·불공정행위 강력 대응” 박성준 의원 “개미 울리는 공매도, 서둘러 조치해야” ‘레고랜드 주관사’ BNK투자증권, 오늘 채권단 회의 개최 웰컴저축은행, 정기예금 금리 최고 4.45% 제공 한국투자證, 뱅키스 전용 ELS 50억 한도 모집 카뱅 임원진, 자사주 줄매입…“주주가치 제고” 케이뱅크 “아담대, 업계 최저금리로 받아보세요” 헤이딜러, 김혜수·한소희와 함께 새 캠페인 전개 “헤어지자, 두려움 없이” ETRI 주최·셀렉트스타 주관, 자율성장 인공지능 경진대회 성료 DGB금융그룹, 대한민국 교육기부 대상 수상 본문영역 이전 기사보기 다음 기사보기 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 보양식 해물갈치조림에 서비스로 옥돔구이, 성게국 제공 SNS 기사보내기 SNS 기사보내기 스크롤 이동 상태바 현재위치 홈 라운지 라이프 뉴스 투데이 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’ 보양식 해물갈치조림에 서비스로 옥돔구이, 성게국 제공 입력 2019.06.25 10:04 대한금융 온라인팀 jshily@kbanker.co.kr 다른기사 보기 SNS 기사보내기 SNS 기사보내기 다른 공유 찾기 바로가기 글씨크기조절 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 URL복사 닫기 &lt;대한금융신문 온라인팀&gt; 제주도는 해안선의 길이가 약 253km이며, 바다는 100m 안팎의 깊이를 보이고 있다. 바닷물의 온도가 고기들이 살기에 적합하고 따뜻한 난류가 흐르고 있어 어족이 풍부하기 때문에 육지와는 다른 맛있는 해산물 요리들이 많다. 제주도에는 세계적으로도 희귀한 사람 발자국 화석이 발견되면서 많은 이들의 관심을 받고 있는 사계해안도로가 있다. 산방산 방향에서 시작해서 해안도로 드라이브를 즐기며 달리다 보면 송악산을 만나볼 수 있으며, 사계리와 상모리의 빼어난 해안 절경은 물론 형제섬과 한라산, 그리고 가파도와 마라도까지 볼 수 있다. 특히 송악산은 서귀포시 대정읍 상모리에 있는 높이 104m의 산으로 주변 풍경이 뛰어나 관광 명소로 잘 알려져 있으며, 세계적으로 유례가 드문 이중 분화구로 된 독특한 화산지형을 갖춘 곳이다. 송악산 둘레길을 따라 걷다 보면 끝 없이 펼쳐진 푸른 바다를 감상할 수 있으며, 절벽 위로 이어진 산책로를 통해 제주도 해안가의 기암절벽을 마음껏 감상할 수 있다. 중문관광단지 인근에 위치한 카멜리아힐은 수국을 보려는 이들로 붐비고 있다. 야자수와 각종 조경수가 함께 어우러진 카멜리아힐은 산책로가 잘 조성되어 있는 수목원으로 야생화 코너를 비롯해 넓은 잔디광장, 생태연못 등을 감상할 수 있다. 6월을 맞이한 카멜리아힐은 수국은 물론 80개국의 동백나무 500여 품종 6000여 그루가 울창한 숲을 이루고 있어 여유로운 산책이 가능하여 제주를 방문한 여행객들이 즐겨 찾는 명소가 되고 있다. 어족이 풍부한 제주에는 각종 해산물 요리가 많은데 이 가운데 제주도 서귀포 중문관광단지 맛집 '기원뚝배기'는 보양식 해물갈치조림이 대표 메뉴다. 해물갈치조림을 주문하면 옥돔구이가 서비스로 제공되어 따로 주문하지 않아도 담백한 옥돔구이를 맛볼 수 있다. 해물갈치조림은 제주산 통갈치에 천연약초를 숙성한 양념을 사용하기 때문에 갈치 특유의 비린 냄새가 없고 맛이 담백하면서 고소하다. 게다가 문어, 생전복, 새우 등 다양한 해산물이 들어가기 때문에 현지인들도 즐겨 찾을 만큼 맛이 좋다. 제주 맛집 기원뚝배기에서 통갈치조림정식 A세트를 주문하면 서비스로 옥돔구이와 성게국이 추가로 하나씩 더 제공된다. 이는 기원뚝배기의 상호에서 알 수 있듯이 손님들이 맛있게 식사하기를 바라는 업소 대표의 마음이 담겨 있다. 실제 관광지의 식당의 경우 외부에서 밑반찬을 구입해서 손님 상에 올리는 경우가 많지만 기원뚝배기는 매일 새벽 국내산 재료를 직접 구입하여 내 가족이 먹는다는 마음으로 전라도 엄마의 손맛을 담아 10여가지 밑반찬을 직접 만들고 있다. 한편 제주도 맛집 기원뚝배기는 오전 7시부터 손님을 맞이하고 있어 제주 중문 아침식사 맛집으로 잘 알려져 있으며, 아침 식사 메뉴는 물론 해장메뉴도 다양하게 준비하고 있다. 영업시간은 오후 10시까지며 연중무휴로 운영된다. 또한 무료셔틀을 운행하고 있어 영업시간 중 호텔 픽업서비스도 제공하고 있다. 저작권자 © 대한금융신문 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 많이 본 기사 최근 한달 1 유사암 '납입면제' 신사협정 깨졌나…과열경쟁 여전 2 오늘이 제일 비싼 보험사 채권…투자자는 여유 3 ‘정상여신 0건’ 저축은행도…부동산 쏠림현상 심각 4 사라진 은행 특판, ‘가만있어도 배불러’ 5 [보험, 오해와 진실] “초고금리시대, 역성장과 계약자이탈 몰아칠 것” 6 한화생명 ‘혁신사업’ 구독보험 접는다 7 동양 이어 한화생명도 ‘4.5% 저축보험’ 내논다 8 금감원, SBI저축은행 작업대출 집중검사 착수 9 WCP 부진에…기업공개 시장도 먹구름 10 9개월 만에 1조원 더 굽은 보험사 허리 1 삼성화재 ‘위풍댕댕’, 3일만에 메리츠화재 판매량 넘었다 2 뒤늦게 드러난 리치앤코의 역린…MG손보 투자금 손상처리 3 [국감 예고편] 증권가 ‘공매도‧사모펀드‧불법대출’로 긴장 4 롯데카드 매각 부진?…이유 있는 M&amp;A 전략 5 환율 1400원 시나리오…한화생명 '웃고' 삼성생명 '울고' 6 [허점투성이 1200% 룰] ①보험사-GA의 밀월 “시책 900% 쏩니다” 7 저축은행, 자영업자 대출도 브레이크 걸리나 8 잇단 저축은행 금융사고…‘내 돈 괜찮나’ 불안감 증폭 9 한달새 2조 팔린 ‘4% 저축보험’, 은행만 노났다 10 '전속' 빗장 푼 한화생명 GA, 설계사 반년새 800명 ↑ 대한금융DB [대한금융DB] 4대 금융지주 주식 외국인 소진율 추이 [대한금융DB] 5대 시중은행 예적금 잔액 추이 [대한금융DB] 국내 진출한 중국계 은행 수익성 추이 라운지의 최신 기사 헤이딜러, 김혜수·한소희와 함께 새 캠페인 전개 “헤어지자, 두려움 없이” ETRI 주최·셀렉트스타 주관, 자율성장 인공지능 경진대회 성료 노바크(NOVAC), 베트남 총판계약 체결 ‘5천만 바이크 시장 공략 본격화’ 1000년을 살고도 건강한 괴산 ‘은행나무’ [응답하라, 우리술 269] 드라이와인의 명가 꿈꾸는 ‘율와이너리’ 에어맘 분유포트, 임산부의 날 맞아 쇼핑 라이브 생방송 진행 하단영역 하단메뉴 신문사소개 고객센터 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 매체정보 서울특별시 영등포구 신길로 220 양우빌딩 202호 대표전화 : 02-783-2583 팩스 : 02-783-2586 청소년보호책임자 : 조성준 법인명 : (주)일간금융 제호 : 대한금융신문 등록번호 : 서울 아 03062 등록일 : 2014-03-24 발행일 : 1995-10-17 발행·편집인 : 조성준 대한금융신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 대한금융신문. All rights reserved. mail to webmaster@kbanker.co.kr 위로 전체메뉴 전체기사 정책 금융 전체 은행 증권 보험 2금융 카드 부동산 금융 100세 금융 해외금융 핀테크·IT 오피니언 전체 기고 기자수첩 금융인 대한금융DB 전체 은행 증권 보험 2금융 카드 자동차보험 라운지 전체 문화탐방 라이프 인사동정 전체 인사 부고 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>‘힐링’ 제주도, 서울국제관광산업박람회 최우수 부스 운영상 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; ‘힐링’ 제주도, 서울국제관광산업박람회 최우수 부스 운영상 파이낸셜뉴스입력 2019.06.11 01:46수정 2019.06.11 01:46 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 도·관광협회 6일~9일 코엑스서 제주관광홍보관 운영 [제주=좌승훈 기자] 제주특별자치도와 제주특별자치도관광협회(회장 김영진)가 2019 서울국제관광산업박람회에서 최우수 부스 운영상을 수상했다. 도와 관광협회는 지난 6일~9일 서울 코엑스에서 열린 2019 서울국제관광산업박람회에 참가해 제주관광 홍보관을 운영했다. 서울국제관광산업박람회는 서울시의 서울국제트래블마트(SITM)와 (주)코트파의 한국국제관광전(KOTFA)을 통합한 행사로 국내 최대 규모 관광박람회다. 제주관광 홍보관에서는 힐링 체험을 주제로 올레길·레저스포츠 홍보와 함께 제주 천연 감물염색 체험 프로그램이 진행됐다. 또 제주여행 종합쇼핑몰, 제주시티투어 등 제주여행상품을 홍보했다. 아울러 박람회와 함께 진행된 서울국제트래블마트(SITM)에 제주지역 관광사업체가 참가한 가운데 관광 수요 창출을 위한 활동을 펼쳤다. 도와 관광협회는 앞으로도 내국인 관광객 유치를 위한 홍보 마케팅을 지속적으로 펼칠 예정이다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 호남국제관광박람회서 뱃길관광 중점 홍보 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도관광협회, 호남국제관광박람회서 뱃길관광 중점 홍보 파이낸셜뉴스입력 2019.06.02 01:07수정 2019.06.02 01:07 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 5월31일~6월2일, 제주도홍보관 운영 [제주=좌승훈 기자] 제주도와 제주도관광협회(회장 김영진)는 2019 호남국제관광박람회(5월31일~6월2일, 광주 김대중컨벤션센터)에서 제주관광홍보관을 운영하고 있다. 올해 2회째인 이번 박람회는 호남권 유일의 국제관광박람회로, 국내외 관광홍보관·여행상품관·관광기업관·지역상품관 등 5개 분야에 각 지역을 대표하는 110여개의 기관·단체·기업 이 참가하고 있다. 제주관광홍보관은 여름을 테마로 축제와 레저·스포츠, 제주여행 종합쇼핑몰, 시티투어버스, 관광지 뿐 만 아니라, 제주도 기점의 뱃길관광 활성화를 위해 4개 여객선사들과 공동으로 홍보활동을 전개하고 있다. 한편 제주도홍보관에서는 관람객 참여형 이벤트로 제주 이미지를 담은 머그잔 만들기 체험을 비롯해 경품추첨을 통해 제주관광기념품 공모전 수상작을 제공하고 있다. 특히 제주 해녀를 현대무용으로 표현한 퍼포먼스도 선보이고 있다 jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’, 보양식 해물갈치조림에 옥돔구이, 성게국 서비스 &lt; 생활·문화 &lt; 오늘공감 &lt; 기사본문 - 공감신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 13:05 (화) 전체기사 로그인 회원가입 전체 딥터뷰 경제공감 경제일반 금융/증권 산업/IT 종합 입법공감 종합 정치공감 종합 오늘공감 사회 생활·문화 인사/부고 종합 지역공감 칼럼공감 최종현 학술원 이슈앤속보 자문위원 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’, 보양식 해물갈치조림에 옥돔구이, 성게국 서비스 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 스크롤 이동 상태바 현재위치 홈 오늘공감 생활·문화 제주도 서귀포 중문관광단지 맛집 ‘기원뚝배기’, 보양식 해물갈치조림에 옥돔구이, 성게국 서비스 기자명 인터넷뉴스팀 입력 2019.06.21 11:05 댓글 0 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 닫기 계절마다 새로운 색을 입게 되는 제주에서 요즘 꼭 구경해야 할 것은 단연 수국이다. 녹색이 약간 들어간 흰 꽃이었다가 점차 밝은 청색으로 변하여 나중에는 붉은 기운이 도는 자색으로 바뀌는 수국은 토양에 따라 청색을 많이 띠기도 하고, 붉은색을 띠기도 하는 특성을 가지고 있다. 제주도에 오면 도로 위에 피어 있는 수국길부터 관광지에서 사진을 찍기에 좋도록 잘 조성된 곳까지 수국을 다양하게 만나볼 수 있다. 6월의 한 가운데에서 시원스럽고 풍성하게 꽃을 피우고 있는 수국 나무 아래에 앉아 편안한 휴식을 즐기는 것도 여행의 묘미라 할 수 있다.중문관광단지 인근에 위치한 카멜리아힐은 30년 동안 제주의 자연을 담은 동양에서 가장 큰 동백 수목원으로 잘 알려져 있으며, 요즘은 수국꽃이 한창이다. 드넓은 대지 위에는 가을부터 봄까지 시기를 달리해서 피는 80개국의 동백나무 500여 품종의 동백나무가 울창한 숲을 이루는 곳이다. 동백이 피지 않는 여름에는 화려한 수국이 피어 4계절 사람들의 발길이 끊이지 않으며, 수목원 내에는 카페와 동백꽃을 활용한 제품을 판매하는 샵도 있어 차 한잔도 즐기며 쇼핑도 즐겨보기에 좋다.6월 카멜리아힐은 온통 초록으로 싱그러움이 스며든 정원에 길게 늘어선 수국길이 기다리고 있다. 수목원 곳곳에 센스 있는 다양한 포토존이 형성되어 있다. 이곳을 찾는다면 수국길 주위에서는 물론 꽃 선글라스를 쓰고 꽃다발을 들고 있는 재치 있는 돌하르방부터 다양한 이색 포토존이 있어 추억의 사진을 남기기에 좋다. 최근에는 수국길 뒤로 유리온실이 생겨 더욱 이국적인 분위기를 자아 있으며, 현재 수국 축제가 열리고 있어 7월까지는 풍성한 수국을 만나볼 수 있다.요즘 제주를 찾는 여행객들 사이에 해물갈치조림 인기가 대단하다. 평소 육지에서 먹을 수 없는 이색적인 요리로 잘 알려진 해물갈치조림을 먹기 위해 제주도 서귀포 중문 맛집 '기원뚝배기'에는 현지인들도 많이 찾고 있다. 이 업소는 갈치 특유의 비린 냄새를 없애고 담백하고 고소한 맛을 위해 약초를 숙성한 천연 양념을 사용하고 있다. 천연 양념 사용 덕분에 현대인의 입맛과 건강을 동시에 잡을 수 있었고, 손님들은 양념과 밥을 비벼 먹으며 밥 한 그릇을 금새 비우기도 한다. 해물갈치조림에는 싱싱한 해산물이 다양하게 들어간다. 기원뚝배기 입구에는 수족관이 있기 때문에 살아 있는 문어, 새우, 생전복 등의 다양한 해산물을 해물갈치조림에 넣어 맛있는 요리를 먹을 수 있다. 제주 맛집 ‘기원뚝배기’에는 서비스로 제공되는 것도 많다. 주력 메뉴인 해물갈치조림을 주문하면 옥돔구이와 성게국을 무료로 맛볼 수 있다. 그리고 통갈치조림정식 A세트 메뉴를 주문할 경우 옥돔구이와 성게국을 기본 상차림 외에 추가 비용 없이 무료로 하나씩 더 제공하고 있다. 그리고 기원뚝배기는 전날 술자리를 가진 손님들과 이른 아침 여행을 떠나는 이들을 위해 진한 육수가 일품인 각종 전골과 아침식사 메뉴도 준비하고 있어 제주 중문 아침식사 맛집으로도 잘 알려져 있다.제주도 중문관광단지 맛집 기원뚝배기 상호의 뜻은 손님들이 맛있고 푸짐하게 식사할 수 있기를 기원한다는 업소 대표의 요리 철학이 담겨 있다. 그래서 이 업소는 밑반찬도 외부에서 사서 손님에게 내 놓는 것이 아니라 매일 국내산 재료를 구입하여 전라도 엄마의 손맛과 정성을 담아 만들고 있다.한편 제주도 맛집 기원뚝배기는 무료 셔틀버스를 운영하고 있어 호텔 픽업서비스를 제공하고 있으며, 오전 7시부터 오후 10시까지 연중무휴로 영업하고 있다. 전용 주차장도 넓어 주차도 편리하다. 저작권자 © 공감신문 무단전재 및 재배포 금지 인터넷뉴스팀 news@gokorea.kr 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 주요기사 [박상기의 재미있는 협상이야기] 바이든의 칩4 와 IRA가 촉발한, 한국 미국 협상총력전 치열한 카드 빅4 경쟁…앱 사용자 분포는? 하영제 의원, 사천·남해·하동 하반기 특별교부세 56억원 확정 최영희 “국민연금, ‘스튜어드십 코드’ 도입 이후 기업경영간섭 심각" 윤재갑 의원, 지역농협 비상임조합장 무제한 연임 제한 `농협법 개정안' 발의 '대세 걸그룹' 뉴진스, 신한은행 '뉴 쏠' 모델 발탁 당신만 안 본 뉴스 "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? '천원짜리 변호사' 김지은, 낯익다 했더니 ITZY 류진·한소희·손나은 닮은꼴 '마약 혐의' 돈스파이크 입건에 성하윤 프로필·직업·인스타 관심 [특징주] 오성첨단소재 주가 급등세… 이유는? '소상공인 손실보상 2분기' 신청 시작... 대상·신청 방법은? [내일날씨] 전국 흐리고 비내려...일부 돌풍에 천둥·번개까지 '확인 방법 이렇게' 상생소비복권 당첨자 30일 발표...지급일 언제? "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? 오늘공감 치열한 카드 빅4 경쟁…앱 사용자 분포는? '그림으로의 치유'…장수희 작가, 제8회 개인전 '노스텔지아' 개최 서울시교육청, 오는 28일까지 ‘빅데이터 활용 아이디어’ 공모 아빠의 무관심이 미덕(?)...초딩 아빠와 교장샘이 함께 춤을 추는 학교 한국화의 서태지 신동철 화백, 40회 개인전 ‘유몽고금(遊夢古今)’ 인기기사 1 [조봉현의 스타트업경제] 과거와 다른 高환율, 어디로 튈까? 2 조경태, "국민을 피해자로 만드는 '국회의원 면책특권' 폐지하라" 3 박수영 “국립대 교수 일가에게 놀아난 한전 자회사들…정부가 전수조사 해야" 4 유럽 출장길 오른 손태승 회장… UNEP FI 등과 국제협력 논의 5 외국인 고액 체납자 절반은 출국… 국세청 관리체계 구멍 6 대한민국 시·도의회의장협의회 김현기 회장, 제2회 중앙지방협력회의 참석 7 5년간 국민 1인당 세부담 300만원 늘어 8 양정숙 의원, "보험사, 은행, 정보보안·개인정보 보호 인증 안 받아" 9 김상훈 의원, 작년 국민 1인당 세금부담 1천199만원…2017년 이후 300만원 증가 10 4분기 제조업 '경기 악화' 전망 기업 ↑…“환율 상승에 원자재 비용 부담” 최신기사 [박상기의 재미있는 협상이야기] 바이든의 칩4 와 IRA가 촉발한, 한국 미국 협상총력전 치열한 카드 빅4 경쟁…앱 사용자 분포는? 하영제 의원, 사천·남해·하동 하반기 특별교부세 56억원 확정 최영희 “국민연금, ‘스튜어드십 코드’ 도입 이후 기업경영간섭 심각" 윤재갑 의원, 지역농협 비상임조합장 무제한 연임 제한 `농협법 개정안' 발의 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 영등포구 은행로 58. 1204호(삼도오피스텔) 대표전화 : 02-782-9872 팩스 : 02-783-1358 청소년보호책임자 : 이성철 법인명 : (주)공감신문 제호 : 공감신문 등록번호 : 서울 다 10955 등록일 : 2014-04-17 발행일 : 2017-05-01 대표이사 : 방성식·전규열 발행인 겸 편집인 : 전규열 공감신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 공감신문. All rights reserved. mail to news1@gokorea.kr 위로 전체메뉴 전체기사 입법공감 전체 종합 경제공감 전체 경제일반 금융/증권 산업/IT 종합 딥터뷰 칼럼공감 전체 칼럼 생활경제칼럼 박영철 편집고문 칼럼 오늘공감 전체 사회 생활·문화 인사/부고 종합 정치공감 전체 종합 이슈앤속보 최종현 학술원 자문위원 지역공감 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 아태지역 주요 관광지 위상 제고 - 아시아투데이 아시아투데이 서울 다른도시13.2℃ 춘천강릉서울인천충주대전대구전주울산광주부산제주 뉴델리 22℃ 도쿄 24.9℃ 베이징 16℃ 자카르타 30℃ 네이버뉴스스탠드 네이버 포스트 유투브 페이스북 트위터 최신 오피니언 사설 칼럼·외고 기자의 눈 피플 정치 정치일반 대통령실 국회·정당 북한 외교 국방 정부 사회 사회일반 사건·사고 법원·검찰 교육·행정 노동·복지·환경 보건·의약 경제 경제일반 정책 금융·증권 산업 IT·과학 부동산 유통 중기·벤처 아투시티뉴스 종합 경기·인천 세종·충청 영남 호남 강원 제주 국제 세계일반 아시아·호주 북미 중남미 유럽 중동·아프리카 문화·스포츠 전체 방송 가요 영화 문화 종교 스포츠 여행 포토 전체 포토 비주얼뉴스 지면보기 제보24시 자문위원단 독자권익위원회 아투TV 대학동문골프최강전 글로벌 리더스 클럽 English中文 제주도, 아태지역 주요 관광지 위상 제고 서울시향 유럽 투어 프로그램 미리 감상해볼까 내달 첫 '잡지주간' 행사 열린다 2022년 10월 11일(화) 사통팔달 피플 아투시티초대석 볼거리 전체메뉴 종합 경기·인천 세종·충청 영남 호남 강원 제주 검색버튼 제주도, 아태지역 주요 관광지 위상 제고 기사승인 2019. 06. 06. 10:49 가 (더 작게) 가 (작게) 가 (기본) 가 (크게) 가 (더 크게) 세계관광기구 지역회의에서 제주관광 설명회 개최유네스코 3관왕, 제주해녀 등 독특한 문화 큰 관심 제주관관설명회0제주도와 제주관광공사 관계자들이 세계관광기구 지역회의에서 제주관광설명회를 개최한 뒤 기념촬영을 하고 있다/제공=제주관광공사제주 양준호 기자 = 제주특별자치도가 제주관광공사와 함께 세계관광기구(UNWTO) 지역회의에서 ‘제주 관광 설명회’를 열어 관광지 위상을 높였다. 세계관광기구 지역회의에서 지방 정부가 관광 설명회를 개최한 것은 제주도가 처음이다.제주도는 지난 3일 부탄 팀푸시 타즈 타쉬호텔에서 180여명의 세계 관광 분야 주요 인사들을 상대로 유네스코 3관왕, 해녀 문화 등 제주의 독특한 문화를 소개했다고 6일 밝혔다.안동우 제주 정무 부지사는 “제주 관광은 청정과 공존의 가치에 기반을 두고 주민 주도의 지역 관광 활성화와 관광객의 만족도를 높이는 질적 관광 정책을 추진하고 있다”고 설명했다.또 “빅데이터를 기반으로 하는 스마트 관광에 역점을 두고 개별 관광객이 주도하는 패러다임 변화에 선제적으로 대응해 나갈 방침”이라고 강조했다.쑤 징 세계관광기구 아태국장은 “제주는 아시아를 대표하는 관광 목적지로서 해 마다 위상이 높아지고 있다”며 “제주도와 함께 세계 관광 시장에서 주도적인 역할과 모델 사례를 만들어 낼 수 있도록 적극 협의하겠다”고 말했다.제주 관광 설명회에는 주랍 폴로리카스빌리 세계관광기구 사무총장을 비롯해 부탄 필리핀 말레이시아 방글라데시 몰디브 네팔 인도 인도네시아 태국 베트남 중국 등에서 주요 인사가 참석했다. 양준호 기자 &gt; truth116@asiatoday.co.kr ⓒ아시아투데이, 무단전재 및 재배포 금지 댓글 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 전국 많이 본 뉴스 1 장성 황룡강 가을꽃축제, ‘사람반 꽃반’ 첫날 방문객 6.. 2 ‘주민등록법위반 혐의’ 김재한 창녕군의회 의장 피소 3 김동연 도지사 “전통시장은 지역경제의 근간, 지역화폐 활.. 4 고흥, 친환경 양식 클러스터 조성 1100억원 투자협약... 5 ‘주홍빛 물든 청도에서 즐겨보자’...청도반시축제·세계코.. 6 목포, 주암댐 ‘가뭄심각’ 장흥댐 용수 사용전환 위해 ‘.. 7 김영록 전남지사, 중앙지방협력회의서 중앙권한 과감한 이양.. 오늘의 주요뉴스 “네이버, 소상공인 기금 일부 유용”…네이버 “입장없다” ‘부동산 매물정보 갑질’ 네이버 최수연 첫 재판 연기 이해진 “라인 韓기업이라면, 네이버 韓 아닌 외국기업” 尹, 친일국방 공세에 “北위협 어떤 우려 정당화되나” 유승민 “李, 中 3불 강요 ‘한미일 군사동맹’ 쓰지말라” 건보개편 후폭풍?…국민연금 자발적 가입자 첫 감소 홍준표, 당권주자 겨냥 “배신 경력자는 나오지 말라” ‘신화’ 신혜성, 도난차량서 음주측정 거부하다 체포 신규확진 1만5476명 감소세…사망 10명, 석달새 최소 ‘다사다난’ 오세훈 시장 취임 100일…성과와 과제는 글로벌리더스클럽 회사소개 | 광고안내 | 행사안내 | 구독신청 | 제보24시 | 고충처리 | 회원약관 | 개인정보취급방침 | 청소년보호정책 | 저작권규약 | 인재채용 등록번호 : 서울 아00160 | 등록일 : 2006년 1월 18일 | 제호 : 아시아투데이 | 회장 : 송인준 | 발행인ㆍ편집인 : 우종순 서울시 영등포구 의사당대로1길 34 인영빌딩 | 발행일자 : 2005년 11월 11일 | 대표전화 : 02) 769-5000 | 청소년보호책임자 : 성희제 아시아투데이는 인터넷신문위원회 윤리강령을 준수합니다. Copyright by ASIATODAY Co., Ltd. All Rights Reserved</t>
+  </si>
+  <si>
+    <t>제주도관광협회 등반동호회, 현장체험 &lt; 사회/교육 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 13:07 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 등반동호회, 현장체험 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회/교육 제주도관광협회 등반동호회, 현장체험 기자명 제주매일 입력 2019.06.17 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도관광협회 등반동호회(회장 박지혜·이음새 대표)는 지난 15일 회원 80여명과 함께 ‘카멜리아힐’, ‘세리월드’ 체험행사를 실시했다. 제주매일 news@jejumaeil.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 서귀포시, 사무관 8명 승진 임용 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 포토뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 4 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도·관광공사 서부러시아 의료웰니스 시장 노크 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도·관광공사 서부러시아 의료웰니스 시장 노크 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도·관광공사 서부러시아 의료웰니스 시장 노크 기자명 고 미 기자 입력 2019.06.10 11:23 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 현지 의료웰니스 전문 여행사 및 미디어 초청 팸투어 진행 제주도가 청정‧건강 이미지로 서부러시아 의료웰니스 시장 가능성을 타진했다.제주특별자치도와 제주관광공사(사장 박홍배)는 한국관광공사와 공동으로 지난 7일부터 10일까지 러시아 서부지역 여행업체 및 미디어와 소셜미디어 인플루언서 등 7명을 초청해 의료웰니스 팸투어를 진행했다고 10일 밝혔다.러시아 서부지역은 휴양관광에 대한 선호도 및 웰니스 수요가 높은 곳으로, 제주도는 부유층 및 블레저(비즈니스(business)+레저(leisure))를 타깃으로 휴양과 뷰티, 의료를 결합한 웰니스 상품개발 및 홍보마케팅을 추진하고 있다.이번 팸투어에서는 제주관광공사는 제주 청정 자연과 연계한 숲치료, 수치료, 티테라피, 웰빙식사를 소개했다. 또 안티에이징 시술 등의 체험을 진행했다. 이들 프로그램은 참가자 SNS을 통한 홍보는 물론 현지 유력 뷰티 &amp; 웰니스 전문매체인 ｢인스타일(Instyle)｣과 ｢그라치아(Grazia)｣에 소개될 예정이다. 참가 여행사들이 구성한 제주 의료웰니스 상품도 연내 출시된다.한편 제주관광공사는 도내 병원 및 업계와 공동으로 러시아 현지 박람회 및 상담회 등 타깃 마케팅도 진행하고 있다. 고 미 기자 popmee@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 중문 관광단지 맛집 ‘이조은식당’ 가성비 좋은 갈치정식이 대표메뉴인 효리의단골집 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>제주도, 페이스북 유튜브로 제주관광 온라인 마케팅 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주] 코디엠 3거래일 지속 상승 '삼성전자 영향?' [급등주] 테라셈 상장폐지 앞두고 정리매매 '60%↑' [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' 2022-10-11 13:07 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 페이스북 유튜브로 제주관광 온라인 마케팅 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 페이스북 유튜브로 제주관광 온라인 마케팅 기자명 고병수 기자 입력 2019.06.06 22:16 수정 2019.06.06 22:21 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 글로벌 소비자 공략 (제주=국제뉴스) 고병수 기자 = 제주특별자치도는 페이스북과 유튜브 등 소셜네트워크서비스(SNS)를 통해 동남아 및 글로벌 영어권 잠재 소비자를 대상으로 제주 관광 온라인 마케팅을 집중 추진하고 있다고 6일 밝혔다.올해 동남아 및 구미주 등 온라인 홍보 마케팅 예산은 총 5억 원이다.도에 따르면 지난 5월 중순부터 페이스북과 유튜브를 통한 동남아 및 글로벌 영어권 소비자를 대상으로 한 제주 관광 이미지 영상을 홍보한 결과 총 65만 뷰를 기록해 목표치인 50만 뷰를 상회했다는 것.이번 영상에는 유채꽃밭 승마체험, 제주돌문화공원, 서귀포감귤박물관, 서귀포매일올레시장, 함덕 해변, 수월봉 낙조 및 마을체험 등 체험 위주의 콘텐츠를 담았다.최근 동남아뿐만 아니라 인도, 미국, 캐나다, 영국, 프랑스 등 전 세계 소비자들로부터 긍정적인 반응을 얻고 있다. 제주도는 말레이시아 밀레니얼 소비자들을 대상으로 자신의 제주여행 사진을 공유하는 ‘Share Your Jeju LOVE Moment #JomCutiJeju’(제주의 사랑스러운 순간을 공유하고 #제주로 여행 가자)라는 제주 온라인 포토 콘테스트를 오는 7월 17일까지 진행하고 있다.베트남에서는 제주 가족여행 팸투어를 추진하고 베트남 유명 배우이자 방송인인 Pham Thi Thanh Van(팜티탄번)과 100만 명 인스타그램 팔로워를 보유한 Pham Thu Trang(팜투짱) 등 베트남 인플루언서의 제주여행을 라이브 스트림과 유튜브를 통해 소비자들과 공유했으며, 6월 중에 Wanderlust Tip 제주 특별판을 출간할 예정이다.양기철 제주도 관광국장은 “제주관광 도약시장인 말레이시아 관광객이 올 4월까지 지난해보다 12.8% 증가한 2만1562명이 입도했다”며 “관심시장인 베트남은 직항노선 부재에도 1만702명이 입도하는 등 제주관광 시장 다변화에 중추적인 역할을 담당하는 만큼, 제주관광홍보사무소를 적극 활용한 현지 타깃 마케팅을 강화하겠다”고 말했다.또한 양 국장은 “미국 등 글로벌 신흥시장 소비자들을 대상으로 페이스북과 유튜브를 활용해 지속적인 노출과 온라인 여행사와의 협업 등을 통한 온라인 홍보 마케팅으로 제주 관광 수요를 적극적으로 창출해 나가겠다”고 덧붙였다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 봉화군 새마을직·공장협의회, '새마을 쓰담쓰담 환경정화 캠페인' 개최 보령시, 2022년 청렴문화제 개최 경남산림환경연구원, '독도생물 사진 전시회' 개최...내달 30일 까지 구리시, '어린이급식관리지원센터 위탁 운영기관' 모집 봉화군보건소, 청소년 대상 ‘도전! 금연골든벨’ 운영 BPA, 부산항 항만물류통합플랫폼 모바일 앱(올컨e) 사용 장려 위한 컨테이너 삼남매 캐릭터 공개 최신뉴스 봉화군 새마을직·공장협의회, '새마을 쓰담쓰담 환경정화 캠페인' 개최 보령시, 2022년 청렴문화제 개최 경남산림환경연구원, '독도생물 사진 전시회' 개최...내달 30일 까지 구리시, '어린이급식관리지원센터 위탁 운영기관' 모집 봉화군보건소, 청소년 대상 ‘도전! 금연골든벨’ 운영 포토뉴스 봉화군 새마을직·공장협의회, '새마을 쓰담쓰담 환경정화 캠페인' 개최 보령시, 2022년 청렴문화제 개최 경남산림환경연구원, '독도생물 사진 전시회' 개최...내달 30일 까지 구리시, '어린이급식관리지원센터 위탁 운영기관' 모집 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제주여행 다양한 채널 홍보 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 제주여행 다양한 채널 홍보 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도관광협회, 제주여행 다양한 채널 홍보 기자명 문서현 기자 입력 2019.06.07 12:40 수정 2019.06.07 12:41 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 6~9일, 서울국제관광산업박람회 참가 힐링&amp;체험 주제로 참여형 체험 프로그램 운영 제주도관광협회가 힐링&amp;체험을 주제로 홍보관을 열고 관람객을 대상으로 제주여행의 다양한 채널을 홍보하고 있다.제주도와 제주도관광협회(회장 김영진)는 지난 6~9일 4일간 서울 코엑스에서 개최되는 2019 서울국제관광산업박람회에 참가하여 제주관광 홍보관을 운영하고 있다.제주관광 홍보관은 힐링&amp;체험을 주제로 올레길, 레저스포츠 등 홍보와 더불어, 제주 천연 감귤염색 및 열쇠고리 만들기 등 관람객 참여형 체험 프로그램을 운영하여 많은 관람객의 발길을 모으고 있다.이번 박람회와 통합 진행되는 서울국제트래블마트에는 시리우스호텔, 하얏트 리젠시 제주 호텔, 히든클리프 호텔&amp;네이쳐 등 10개 도내 관광사업체가 셀러로 참가해 해외 바이어와의 B2B 트래블마트를 통해 실질적 수요 창출을 위한 마케팅 활동을 펼치고 있다.앞으로 제주도와 제주도관광협회는 베이비부머 세대, 밀레니얼 세대 등 특정 타겟층을 겨냥한 힐링, 체험 등 맞춤 콘텐츠 홍보를 통해 내국인 관광객 유치 확대를 위한 지속적인 홍보마케팅을 펼칠 예정이다. 문서현 기자 start-to@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 12:33 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N3 이전 다음 제주도, 여름철 성수기 대비 관광숙박시설 등 안전점검 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 사회 제주도, 여름철 성수기 대비 관광숙박시설 등 안전점검 홍석준 기자 승인 2019.06.06 08:54 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 건축·전기·가스 등 분야 점검 결과 14곳 위반사항 적발 시정조치 [미디어제주 홍석준 기자] 제주도가 여름철 성수기를 앞두고 도내 관광숙박시설과 물놀이형 유원시설, 야영장 등에 대한 현장 안전점검을 벌이고 있다. 제주특별자치도는 여름철 대비 물놀이 안전관리 종합대책을 수립, 기관·부서간 협업을 통해 해수욕장, 하천, 계곡, 체육시설 등에 대한 안전점검을 실시할 예정이라고 6일 밝혔다. 이 계획의 일환으로 물놀이형 유원시설과 야영장 안전진단을 위한 현장점검을 통해 기구 결함이나 안전사고를 사전에 예방한다는 방침이다. 물놀이형 유원시설 점검은 도 단위 점검반과 행정시 관광부서, 재난관리부서, 검사기관(KTC) 등으로 구성돼 5월 13일부터 7월 4일까지 점검이 이뤄지고 있다. 주요 점검사항은 유기기구 및 설비의 결함, 물놀이 유원시설업자의 안전위생기준, 안전성검사 수검 및 안전관리자·요원 적정 배치여부, 제반시설 안전 등을 점검하게 된다. 또 행정시 관광부서와 재난관리부서가 점검에 나서는 야영장은 시설노후도, 화재·안전사고 발생 이력, 면적 등을 감안해 전체 43곳의 30%인 17곳을 선정해 점검을 실시하고 있다. 한편 지난 5월 15일부터 31일까지 관광숙박업 및 휴양펜션업 53곳을 대상으로 건축·전기·가스 등 분야에 대한 점검을 벌인 결과 관광숙박업 8곳, 휴양펜션업 6곳 등 모두 14곳에서 위반사항이 적발돼 시정조치가 내려졌다. 적발된 사항을 보면 소방시설 기준 위반 4곳, 비상통로 등 확보 위반 5곳, 등록기준 위반 3곳 등이었다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 홍석준 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 6&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>제주도, 세계관광기구 대상 제주관광 설명회 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 13:03 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 세계관광기구 대상 제주관광 설명회 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 세계관광기구 대상 제주관광 설명회 개최 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2019.06.05 17:31 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 제주관광공사와 공동으로 세계관광기구(UNWTO) 지역회의에서 세계 관광분야 주요 인사들을 대상으로 제주관광설명회를 개최했다고 6일 밝혔다.지난 3일 부탄팀푸시 타즈 타쉬호텔에서 진행된 이날 설명회에서 제주도는 180여 명의 세계 관광분야 주요 인사들을 상대로 제주의 관광정책을 발표하고, 유네스코 3관왕, 해녀 문화 등 제주의 독특한 문화를 소개해 주랍 폴로리카스빌리(Zurab Pololikashvili) UNWTO 사무총장을 비롯한 UNWTO 아태지역 25개 회원국 관계자들로부터 관심을 받았다.안동우 제주도 정무부지사는 이날 행사에서 "제주관광은 청정과 공존의 가치에 기반을 두고, 주민주도의 지역관광활성화와 관광객의 만족도를 높이는 질적 관광정책을 추진하고 있다"고 밝혔다.또 "빅데이터를 기반으로 하는 스마트관광에 역점을 두고, 개별관광객이 주도하는 패러다임 변화에 선제적으로 대응해 나가겠다"고 강조했다.쑤 징(Xu Jing) UNWTO 아태국장은 "제주는 아시아를 대표하는 관광목적지로서 해마다 위상이 높아지고 있다"며 "UNWTO 차원에서도 제주도와 함께, 세계관광시장에서 주도적인 역할과 모델사례를 만들어 낼 수 있도록 적극 협의해 나가겠다"고 말했다.한편 제주도는 이번 행사기간 중 UNWTO와의 실무협의를 통해, 오는 2020년 제주포럼 세션으로 ‘섬관광정책(ITOP) 포럼 국제정책 세미나’를 제주특별자치도와 UNWTO가 공동 주최하고, UNWTO 158개국 관광네트워크를 통해 온라인 제주 홍보 등에도 상호 협력하기로 하는 등의 성과를 얻었다.제주도 관계자는 "이번 행사를 통해 아시아를 대표하는 관광목적지로서 제주관광의 현재를 재확인 하는 계기가 됐다"며 "앞으로 국제무대에서의 제주관광의 위상과 이미지를 더 높여나갈 수 있도록 노력 하겠다"고 말했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>[독자기고] 야간관광 빈약한 국제관광지 제주도 &lt; 기고 &lt; 오피니언 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 오피니언 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 본문영역 이전 기사보기 다음 기사보기 [독자기고] 야간관광 빈약한 국제관광지 제주도 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 오피니언 기고 [독자기고] 야간관광 빈약한 국제관광지 제주도 기자명 홍민성 입력 2019.06.04 17:50 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 홍민성 제주대 관광개발학과 빈약한 야간관광지는 제주도의 아킬레스건과 다를 바 없다. 제주도가 국제관광지를 지향하고 있음에도 야간에 내세울만한 관광 콘텐츠가 없기 때문이다.행정에서도 이를 인식, 야간관광 프로그램 활성화를 위해 노력하고 있다. 제주시엔 삼다공원 야간콘서트·동문 야시장·라이트 아트 페스타(Light Art Festa)등이, 서귀포시엔 제주허브동산·야호페스티벌·천지연 야간음악회 등이 있으나 소기의 목적과는 아직 거리가 있어 보인다.경쟁력이 문제다. 서울의 경우 남산타워 야간관광 코스나 쇼핑과 먹거리를 접목시킨 남대문과 동대문의 야간관광코스들엔 외국 관광객들의 발길이 꾸준히 이어지고 있다. 해외로 눈을 돌리면 대만은 101타워와 스린 야시장을 중심으로 야간관광코스가 발달했고, 홍콩은 빅토리아피크와 몽콕 야시장을 필수 관광코스로 발전시켰다.결국은 야간관광지 콘텐츠의 강화와 적극적인 홍보다. 국비와 지방비 등 10억원을 들인 제주시 동문재래시장 고객지원센터 아케이드의 판매대 32개와 조명시설·의자·포토 존 등이 관광객들의 구미에 부합하는 지 등을 점검할 필요가 있다. 관광 시설은 공급자가 보여주는 것에 그치지 말고 관광객들에 의해 소비돼야 하기 때문이다. 아울러 야간관광코스인 만큼 대중교통이나 투어버스 추가 배치 등 '소비자'인 관광객들에 대한 접근성도 강화돼야 한다.제주도의 밤도 낮 못지않게 아름다울 수 있다. 이러한 제주도의 밤을 관광객들이 보고 즐길 수 있는 관광코스 개발이 필요한 이유다. 더욱 업그레이드된 야간관광 콘텐츠로 관광객들에겐 만족을 제공하고 관광지 제주도엔 국제 경쟁력을 높이는 계기가 마련될 수 있었으면 하는 바람이다. 홍민성 webmaster@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 외국인 관광객 '다시 왔다' 늘고 '처음 왔다' 줄고 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도 외국인 관광객 '다시 왔다' 늘고 '처음 왔다' 줄고 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도 외국인 관광객 '다시 왔다' 늘고 '처음 왔다' 줄고 기자명 고 미 기자 입력 2019.06.12 15:00 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 한국관광공사 방한실태 원자료 분석 중화권 이탈 뚜렷·신규 미미최근 3년간 4회 이상 재방문 17.9%, 문화·역사 탐방 증가 등 변화적극적인 관광영토 개척으로 질적 성장을 이루겠다는 제주도의 구상에 전면적인 재검토 작업이 필요하다는 지적이다.12일 한국관광공사 '2018 방한 관광객 실태조사'의 지역별 원자료를 분석한 결과 중화권 관광객들의 이탈이 뚜렷했다.중국인 관광객들이 가장 선호하는 방문지(중복 응답)로 국내에서 서울(79.1%) 다음으로 제주(13.3%)가 꼽혔다. 비중은 크게 줄었다. 2016년 34.9%였던 방문 선호 비율은 2017년 21.1%, 지난해 10%대로 밀렸다.'중국의 사드(THAAD·고고도미사일방어체계) 보복'이란 공통 조건을 반영한 결과라는 점에서 상품 경쟁력 약화 우려를 낳았다.일본인 관광객은 서울(73%)에 이어 부산(16.5%), 경기(8.9%)를 우선으로 꼽는 등 제주에 대한 관심이 적은 것으로 분석됐다.2016년(18.6%)과 2017년(18.4%) 한국을 찾은 방문객 10명 중 2명 꼴로 제주를 택했던 싱가포르 관광객이 지난해 강원도(19.8%)로 목적지를 바꿨다. 2016년 20.2%가 제주를 만끽했던 베트남 관광객들도 2년 연속 경기(2017년 32.6%·2018년 38.2%)·강원도(16.5%·33.3%)를 택했다.지난해 말레이시아 관광객의 23.7%가 제주를 찾은 것 외에는 별다른 특이사항을 찾을 수 없었다.제주를 찾은 외국인 방문객 비율은 8.5%로 2016년 20.2%, 2017년 10.8%와 차이가 컸다. 최근 4년 중 가장 낮았다. 연령별로는 15~20세(11.2%)와 51세 이상(22.9%) 비율이 상대적으로 높았다.다만 최근 3년 간 4회 이상 방문한 비율이 2016년 6.5%에서 지난해 17.9%로 늘어났다. 주요 방문 목적으로 여가·위락·휴식을 고른 관광객이 2017년 66.1%에서 지난해 92.5%로 급증하는 등 중국인 관광객 이탈 영향을 반영했다. 쉬고 즐기기 위해 제주를 찾았지만 외국인 관광객이 가장 많이 선택한 것은 쇼핑(96.4%·중복응답)이었다. 자연경관 감상이 84.5%, 식도락 관광이 74.3%였다.지난해는 특히 고궁·역사 유적지 방문(40.0%), 박물관·전시관 견학(28.5%)을 고른 경우가 전년(9.9%, 6.4%)에 비해 늘어나는 등 관광객 성격에 변화가 감지됐다. 고 미 기자 popmee@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제주 뱃길 지원 사업 추진 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 제주 뱃길 지원 사업 추진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도관광협회, 제주 뱃길 지원 사업 추진 기자명 문서현 기자 입력 2019.06.04 08:55 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 지난달 31일 부산-제주 뉴스타호 불꽃놀이 선상이벤트 지원 제주도관광협회가 뱃길 관광 상품개발 유도 등 다양한 측면에서 제주 뱃길 지원사업을 추진하고 있다.제주도와 제주도관광협회(회장 김영진)는 지난달 31일 부산을 출발해 제주로 향하는 여객선 뉴스타호(엠에스페리 대표 최철희)에서 진행된 불꽃놀이 선상이벤트를 지원했다.부산항대교를 배경으로 밤하늘을 수 놓은 이번 불꽃쇼는 탑승객 600여명으로부터 큰 호응을 얻어 뱃길 여행만의 매력을 느낄 수 있는 시간이 됐다.또한, 불꽃쇼에 앞서 색소폰 연주, 노래·댄스 경연대회를 열어 분위기를 한껏 고조시켜, 제주뱃길 관광에 만족도를 높였다.한편, 뉴스타호는 총 9,997t 정원 710명 규모의 여객선으로 매주 월·수·금 오후 7시 부산을 출항, 제주에 입항하며 약 12시간이 소요된다. 문서현 기자 start-to@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 호남국제관광박람회서 제주홍보관 운영 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 13:03 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 호남국제관광박람회서 제주홍보관 운영 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도관광협회, 호남국제관광박람회서 제주홍보관 운영 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2019.06.01 17:28 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 광주 김대중컨벤션센터에서 열린 2019 호남국제관광박람회에 참가해 지난 31일부터 제주관광 홍보관을 운영하고 있다.지난해에 이어 2회째를 맞이한 이번 박람회는 국내외 관광홍보관, 여행상품관, 관광기업관, 지역상품관 등 5개 분야에 각 지역을 대표하는 기관․단체․기업 110여개가 참가하고 있다.제주관광 홍보관은 여름을 테마로 축제 및 레저․스포츠 이미지를 구성하고 제주여행 종합쇼핑몰, 시티투어버스, 관광지뿐만 아니라 제주를 기점으로 하는 뱃길 관광의 활성화를 위해 4개 여객 선사들과 공동으로 홍보 활동을 전개하고 있다. 한편, 홍보관에서는 관람객 참여형 이벤트로 제주이미지를 넣은 머그잔 만들기 체험을 비롯하여 경품 추첨을 통해 다양한 제주관광기념품 공모전 수상작을 제공하고 있다. 특히 제주 해녀를 현대무용으로 표현한 퍼포먼스를 선보여 관람객들의 관심을 끌었다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도&amp;#8231;제주도관광협회 2019 서울국제관광산업박람회서 최우수 부스운영상 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도‧제주도관광협회 2019 서울국제관광산업박람회서 최우수 부스운영상 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 제주도‧제주도관광협회 2019 서울국제관광산업박람회서 최우수 부스운영상 기자명 고 미 기자 입력 2019.06.10 11:10 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도와 제주특별자치도관광협회(회장 김영진)가 2019 서울국제관광산업박람회에서 ‘최우수 부스운영상’을 받았다.제주도관광협회는 지난 6일부터 9일까지 4일간 서울 코엑스에서 열린 2019 서 서울국제관광산업박람회에 이 같은 성과를 얻었다고 10일 밝혔다.이번 제주관광 홍보관은 힐링&amp;체험을 주제로 꾸렸다. 제주 천연 감물염색 및 열쇠고리 만들기 등 관람객 참여형 체험 프로그램을 운영하며 큰 호응을 얻었다. 제주여행 종합쇼핑몰과 제주시티투어 등 제주여행 채널도 홍보했다.박람회와 동시에 진행된 서울국제트래블마트에도 시리우스호텔, 정낭여행사, 테디베어사파리 등 도내 관광사업체가 참가해 실질적 수요 창출을 위해 협업해 관심을 모았다. 고 미 기자 popmee@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도민과 관광객들의 발길이 이어지는 제주도 맛집, 중문맛집 ‘대포동산횟집’ - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 13:05 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도민과 관광객들의 발길이 이어지는 제주도 맛집, 중문맛집 ‘대포동산횟집’ 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME LIFE in BIZ 일반 제주도민과 관광객들의 발길이 이어지는 제주도 맛집, 중문맛집 ‘대포동산횟집’ 곽종현 기자 승인 2019.06.15 09:00 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 유명한 여행지에서는 자신들만의 특색있는 볼거리와 먹거리들이 자주 소개된다. 그중 우리나라를 대표하는 제주도에서는 한라수목원, 천지연폭포, 동백수목원 등 다양할 볼거리가 있으며, 싱싱한 회와 다양한 먹거리들을 찾아 많은 여행객이 제주도를 찾고 있다. 그중 제주도 중문관광단지에 위치하여 지역 제주도민은 물론, 맛집을 찾는 관광객들에게까지 소문이 자자한 중문맛집 ‘대포동산횟집’은 30년 전통의 활어회 전문점으로 알려져있다. 지역 주민들을 찾아오게 하려면 맛은 물론, 자신들만의 매력이 있어야 한다. 요식 업계는 소문에 민감한 곳으로 10년을 유지하게 되는 곳은, 그 맛을 보러 많은 사람들이 찾아온다고 한다. 또한 20년이 되면 근방에서는 모르는 사람이 없게 된다고 말한다. 서귀포 중문관광단지에 위치해 있는 ‘대포동산횟집’은 30년간 자신만의 개성을 가지고 중문맛집으로써의 전통을 지켜온 식당이다. 제주도민뿐만 아니라 관광객들에게도 널리 알려진 곳으로, 여름이 다가오면서 개시한 물회를 맛보기 위한 발길이 이어지고 있다. 중문맛집 대포동산횟집에는 자리돔물회와 전복물회 중 하나를 선택해 매콤한 문어볶음과 함께 먹는 동산문어, 물회 정식이 있다. 신선한 해산물과 채소 등이 풍성하게 들어가 입안 가득 시원하고 신선한 맛을 볼 수 있다. 또한, 점심 특선으로 11시부터 오후 4시까지 갈치 옥돔구이와 성게미역국에 기본반찬이 곁들여져 나오는 동산 정식도 맛볼 수 있다. 대포동산횟집에서는 철에 따라 구문쟁이(능성어), 갯돔, 다금바리, 돗돔, 갈치, 고등어 등을 다양한 밑반찬과 함께 제공하는데, 자연 그대로의 신선함과 함께 비린내 없이 즉석에서 조리해 고소하고 담백한 맛을 선사한다. 또한 새우, 전복, 문어, 키조개, 관자 등 신선한 해산물 등으로 이뤄진 20여가지 이상의 푸짐한 밑반찬(쓰끼다시)이 무한으로 제공된다. 이외에도 밑반찬으로 보기 힘든 갈치회, 고등어회, 전복구이, 뽈락구이, 게우볶음밥 등 제주에서 더 신선하게 먹을 수 있는 음식이 밑반찬으로 나와 호평을 얻고 있다. 중문맛집 ‘대포동산 횟집’은 대포항 옆에 위치한 만큼, 드넓은 바다 조망이 가능하고 식당 내부가 본관과 별관으로 나뉘어 있어 200명 이상 수용 가능해, 대가족여행이나 회사연수회 등 각종 단체행사장소, 단체모임 장소로 추천된다. 여기에 더해 식당 단체예약 시 픽업 서비스를 제공해 손님의 편리함을 높이고자 한다. 한편, 중문맛집 대포동산횟집은 콘도형 펜션인 동산나라펜션을 자체적으로 운영하고 있다. 이를 통해 식사와 숙박, 인근에 관광까지 함께 해결할 수 있는 조건을 갖추고 있다. 곽종현 기자  veryordinary@naver.com 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 곽종현 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 포토뉴스 제주해경, 겨울철 어선 화재 예방 나선다 道 자치경찰단, 태풍 피해 교통신호기 복구에 예비비 투입 2022년도 제주사랑 희망나눔 바자회 제61회 탐라문화제 퍼레이드 제주 전자여행허가제 시행 한 달…입국 불허율 38.4%→3.2% '성과' "동부하수처리장 인근 신규 동굴 추정 흔적 발견…공동조사 요구" 가을 빛으로 물들어가는 억새 처벌 규정도 미흡…개인형 이동장치 면허 도입 등 제도 개선 필요 2022 글로벌 제주상공인 리더십 포럼 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 제주해경, 겨울철 어선 화재 예방 나선다 道 자치경찰단, 태풍 피해 교통신호기 복구에 예비비 투입 2022년도 제주사랑 희망나눔 바자회 제61회 탐라문화제 퍼레이드 제주 전자여행허가제 시행 한 달…입국 불허율 38.4%→3.2% '성과' "동부하수처리장 인근 신규 동굴 추정 흔적 발견…공동조사 요구" 가을 빛으로 물들어가는 억새 처벌 규정도 미흡…개인형 이동장치 면허 도입 등 제도 개선 필요 2022 글로벌 제주상공인 리더십 포럼 잇따른 사고…제도 개선에도 개인형 이동장치 부작용 여전 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>재방문율 높은 제주도 중문 관광단지 맛집 ‘이조은식당’ 갈치조림이 맛있는 효리의단골집 - 경상매일신문 즐겨찾기+ 최종편집 : 2022-10-10 오후 09:59:46 회원가입기사쓰기전체기사보기 뉴스지역뉴스기획특집오피니언라이프PDF 지면보기지난 지역뉴스경상매일신문TV 정치/행정 사회 경제 교육 문화/여성 스포츠 사람들 본사 알림/사고 핫이슈 포항 경북도 대구 경주 경산 영천 영덕 청도 울진 울릉 구미 김천 상주 문경 고령 성주 칠곡 안동 군위 봉화 영주 예천 청송 의성 영양 특집일반 기획 토론·대담 기자수첩 사설 칼럼 기고 시론 경상데스크 독자투고 패션&amp;뷰티 요리맛집 건강&amp;웰빙 홈&amp;리빙 생활정보 여행 경북1 경북2 경북3 대구 - Copyrights ⓒ경상매일신문. 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>[국내 6월 여행지 추천] 가족 여행, 커플 여행 가기 좋은 ‘제주도’...제주도 렌트카·관광지·맛집 소개 &lt; 생활·문화 &lt; 오늘공감 &lt; 기사본문 - 공감신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 13:05 (화) 전체기사 로그인 회원가입 전체 딥터뷰 경제공감 경제일반 금융/증권 산업/IT 종합 입법공감 종합 정치공감 종합 오늘공감 사회 생활·문화 인사/부고 종합 지역공감 칼럼공감 최종현 학술원 이슈앤속보 자문위원 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [국내 6월 여행지 추천] 가족 여행, 커플 여행 가기 좋은 ‘제주도’...제주도 렌트카·관광지·맛집 소개 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 스크롤 이동 상태바 현재위치 홈 오늘공감 생활·문화 [국내 6월 여행지 추천] 가족 여행, 커플 여행 가기 좋은 ‘제주도’...제주도 렌트카·관광지·맛집 소개 기자명 김지원 기자 입력 2019.06.03 18:17 댓글 0 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 닫기 ▲제주도는 가족 여행지로 좋다(사진=ⓒ게티이미지뱅크) 최근에는 제주도 항공권 특가가 자주 뜬다. 이에, 제주도 여행 비용 부담이 줄어 많은 이가 국내 여행지로 제주도를 선택한다. 제주도 렌트카 이용방법, 관광지를 비롯하여 맛집까지 한 번에 소개한다. ▲제주도 여행할 때 렌트카를 이용하는 이가 많다(사진=ⓒ게티이미지뱅크) 제주도 렌트카 이용방법제주도는 대중교통으로 여행하기 힘들다는 단점이 있다. 이에, 많은 이가 렌트카를 이용한다. 제주도 렌트카는 인터넷이나 앱으로 쉽게 예약할 수 있다. 혹시 운전면허증을 놓고 왔다면, 제주공항 내 자치 경찰단에서 확인증을 발급받을 수 있다. 제주도 공항에는 렌트카 회사로 가는 셔틀버스가 있다. 셔틀버스는 공항 5번 출구에서 탈 수 있다. 렌트카를 이용할 때는 빌릴 차를 꼼꼼하게 살펴야 한다. 스크래치 등 결함이 있는 곳은 사진으로 남겨두는 게 좋다. 반납할 때 억울하게 변상해야 하는 일이 생기는 것을 방지하기 위함이다. ▲제주도 여행지를 추천한다(사진=ⓒ게티이미지뱅크) 제주도 여행지 제주도 성산일출봉은 제주도 명소에서 빠질 수 없는 곳이다. 성산일출봉에서는 자연을 느끼며 산책을 즐길 수 있다. 풍경이 아름다워 사진 찍기도 좋다. 성산일출봉에는 보트 타는 곳도 있다. 애월해변은 제주도 저녁 가볼 만한 곳이다. 멋진 노을을 볼 수 있다. 현지인들도 산책을 즐기는 해변이다. 제주도 ‘성읍랜드’는 카트, 승마 등을 즐길 수 있는 관광지로, 아이들과 가볼 만한 곳이다. 승마는 이용시간에 따라 비용이 달라진다. 카트 이용 시에는 캐릭터 옷을 비용 없이 빌릴 수 있다. 이 외에도 제주도에는 용눈이 오름, 신풍 목장, 오조리 마을, 신창 풍차 해안도로 등 가볼 만한 곳이 많다. ▲제주도 맛집을 소개한다(사진=ⓒ게티이미지뱅크) 제주도 맛집‘오는정김밥’은 제주도 맛집이다. 제주도까지 가서 김밥을 먹는 것이 이해가 안 갈 것이다. 오는정김밥을 맛보면 생각이 달라진다. 손님이 많아 예약을 꼭 해야 한다. ‘가시아방국수’는 tvN ‘수요미식회’에 소개된 맛집이다. 돔베고기와 국수를 판다. 도톰한 돔베고기와 국수가 기막힌 조화를 이룬다. ‘놀맨’은 라면 맛집이다. 맛있는 해물 라면이 먹고 싶다면 ‘놀맨’을 추천한다 저작권자 © 공감신문 무단전재 및 재배포 금지 김지원 기자 gokorea_kim01@gmail.com 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 주요기사 [박상기의 재미있는 협상이야기] 바이든의 칩4 와 IRA가 촉발한, 한국 미국 협상총력전 치열한 카드 빅4 경쟁…앱 사용자 분포는? 하영제 의원, 사천·남해·하동 하반기 특별교부세 56억원 확정 최영희 “국민연금, ‘스튜어드십 코드’ 도입 이후 기업경영간섭 심각" 윤재갑 의원, 지역농협 비상임조합장 무제한 연임 제한 `농협법 개정안' 발의 '대세 걸그룹' 뉴진스, 신한은행 '뉴 쏠' 모델 발탁 당신만 안 본 뉴스 "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? '천원짜리 변호사' 김지은, 낯익다 했더니 ITZY 류진·한소희·손나은 닮은꼴 '마약 혐의' 돈스파이크 입건에 성하윤 프로필·직업·인스타 관심 [특징주] 오성첨단소재 주가 급등세… 이유는? '소상공인 손실보상 2분기' 신청 시작... 대상·신청 방법은? [내일날씨] 전국 흐리고 비내려...일부 돌풍에 천둥·번개까지 '확인 방법 이렇게' 상생소비복권 당첨자 30일 발표...지급일 언제? "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? 오늘공감 치열한 카드 빅4 경쟁…앱 사용자 분포는? '그림으로의 치유'…장수희 작가, 제8회 개인전 '노스텔지아' 개최 서울시교육청, 오는 28일까지 ‘빅데이터 활용 아이디어’ 공모 아빠의 무관심이 미덕(?)...초딩 아빠와 교장샘이 함께 춤을 추는 학교 한국화의 서태지 신동철 화백, 40회 개인전 ‘유몽고금(遊夢古今)’ 인기기사 1 [조봉현의 스타트업경제] 과거와 다른 高환율, 어디로 튈까? 2 조경태, "국민을 피해자로 만드는 '국회의원 면책특권' 폐지하라" 3 박수영 “국립대 교수 일가에게 놀아난 한전 자회사들…정부가 전수조사 해야" 4 유럽 출장길 오른 손태승 회장… UNEP FI 등과 국제협력 논의 5 외국인 고액 체납자 절반은 출국… 국세청 관리체계 구멍 6 대한민국 시·도의회의장협의회 김현기 회장, 제2회 중앙지방협력회의 참석 7 5년간 국민 1인당 세부담 300만원 늘어 8 양정숙 의원, "보험사, 은행, 정보보안·개인정보 보호 인증 안 받아" 9 김상훈 의원, 작년 국민 1인당 세금부담 1천199만원…2017년 이후 300만원 증가 10 4분기 제조업 '경기 악화' 전망 기업 ↑…“환율 상승에 원자재 비용 부담” 최신기사 [박상기의 재미있는 협상이야기] 바이든의 칩4 와 IRA가 촉발한, 한국 미국 협상총력전 치열한 카드 빅4 경쟁…앱 사용자 분포는? 하영제 의원, 사천·남해·하동 하반기 특별교부세 56억원 확정 최영희 “국민연금, ‘스튜어드십 코드’ 도입 이후 기업경영간섭 심각" 윤재갑 의원, 지역농협 비상임조합장 무제한 연임 제한 `농협법 개정안' 발의 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 영등포구 은행로 58. 1204호(삼도오피스텔) 대표전화 : 02-782-9872 팩스 : 02-783-1358 청소년보호책임자 : 이성철 법인명 : (주)공감신문 제호 : 공감신문 등록번호 : 서울 다 10955 등록일 : 2014-04-17 발행일 : 2017-05-01 대표이사 : 방성식·전규열 발행인 겸 편집인 : 전규열 공감신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 공감신문. All rights reserved. mail to news1@gokorea.kr 위로 전체메뉴 전체기사 입법공감 전체 종합 경제공감 전체 경제일반 금융/증권 산업/IT 종합 딥터뷰 칼럼공감 전체 칼럼 생활경제칼럼 박영철 편집고문 칼럼 오늘공감 전체 사회 생활·문화 인사/부고 종합 정치공감 전체 종합 이슈앤속보 최종현 학술원 자문위원 지역공감 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>김영진 제주도관광협회장, ‘2019 한국관광혁신대상’ 최우수상 영예 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 13:05 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 김영진 제주도관광협회장, ‘2019 한국관광혁신대상’ 최우수상 영예 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 김영진 제주도관광협회장, ‘2019 한국관광혁신대상’ 최우수상 영예 문유미 기자 승인 2019.06.09 12:13 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 김영진 제주특별자치도관광협회장은 지난 7일 서울 코엑스에서 서울특별시·한국관광학회·태평양지역관광협회의 공동 주최로 열린 ‘2019 한국관광혁신대상’에서 마케팅 부문 최우수상을 수상했다.문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, ‘2019 호남국제관광박람회’서 제주관광 홍보 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 13:05 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도관광협회, ‘2019 호남국제관광박람회’서 제주관광 홍보 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회, ‘2019 호남국제관광박람회’서 제주관광 홍보 문유미 기자 승인 2019.06.02 15:04 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 지난달 31일부터 2일까지 3일간 광주에서 열린 ‘2019 호남국제관광박람회’에 참가해 제주관광 홍보 활동을 펼쳤다.문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도 교회와 벽, 버스, 관광지에 퍼진 ‘복음광고’ : 문화 : 종교신문 1위 크리스천투데이 문화 제주도 교회와 벽, 버스, 관광지에 퍼진 ‘복음광고’ 크리스천투데이 전체기사 교계교단 전체기사 일반기사 연합기구 교단 기관단체 이단·사이비 목회신학 전체기사 일반기사 교회/목회 치유상담 신학대 소식 신학/단체 은혜의 샘 설교 교회로 돌아온 신학 교회건축, 패러다임을 바꾸다 선교 전체기사 일반기사 국내선교 해외선교 특수선교 중보기도 해외 한인교회 특별기고 청년캠퍼스 청소년 국제 전체기사 일반기사 국제기구 미국·중남미 아시아·대앙주 유럽 중동·아프리카 일반기사 사회 전체기사 일반기사 정치·사회 인권 종교 봉사 NGO 복지 사람들 문화 전체기사 일반기사 대중문화 에세이 송영옥 칼럼 영화·공연 미술전시 문학 북스 뮤직/CCM 크리스천 연예/스포츠 교육 전체기사 일반기사 교회교육 홈스쿨링 기독교학교 라이프 전체기사 건축 일터 사역 여행 집회/세미나 생활경제 가정 건강 크리스천기업소식 오피니언/칼럼 기독컨텐츠 카드뉴스 오늘의 묵상 기독교 명언 북마크 쉽게 씌어진 시 Praise 배경화면 Pray with You 산마루서신 오늘의 기도문 포토투데이 CTTV 문화 일반기사 제주도 교회와 벽, 버스, 관광지에 퍼진 ‘복음광고’ 김신의 기자 sukim@chtoday.co.kr | 입력 : 2019.06.04 18:03 Share Kakao More ▲서귀포 대정읍에 위치한 대정교회 ⓒ복음의전함 제주도 교회와 벽, 버스정류장, 관광지 전역에 ‘복음광고’가 세워졌다. 사단법인 복음의전함과 제주성시화운동본부는 &lt;대한민국을전도하다&gt; 3차 제주 캠페인으로 1일 제주영락교회에서, 2일 법환교회에서 2019 제주 복음화 전도 대회를 열었다. 제주도의 463 전 교회는 교회 외벽에 ‘복음광고’가 설치됐고 버스에도 ‘복음광고’가 걸렸다. 복음의 전함은 “직접 들은 동역자분들의 수많은 간증만큼이나 감사한 순간들의 연속이었다”며 “하나님께서 제주를 정말 사랑하시고, 대한민국을 정말 사랑하심을 느낄 수 있었다”고 했다. 또 복음의전함은 최근 익명의 기부를 통해 한겨레 신문에도 ‘복음광고’를 냈다. 이에 복음의전함은 “갈수록 매체 환경이 어려워지면서 다양했던 광고 매체가 점점 사라지고 있다. 모든 뉴스의 통로가 핸드폰이 되고, 인터넷이 되고, 영상이 되어가고 있다. 많은 사람들은 그 방법이 가장 효율적이고 효과적이라고 말한다. 그러나 그 사실 뒤에 숨겨진 또 다른 사실 한 가지. 여전히 누군가는 오프라인에서 신문을 본다. 50~60대 그 이상 어르신들은 여전히 신문을 본다”며 “어쩌면 청년들보다 앞으로의 삶에서 ‘복음’을 들을 기회가 훨씬 더 적은 그분들에게 복음을 전해야 한다는 마음이 있다”고 했다. 구독신청 &lt;저작권자 ⓒ '종교 신문 1위' 크리스천투데이, 무단전재 및 재배포 금지&gt; 마켓 플레이스 기독교 세미나/행사정보 파워관계전도세미나 [양평] 더큰나무 펜션_캠프_교육관_수… &lt;눈으로 보듯 손으로 만지듯&gt; 사역장로 '7년의중간보고서' [시무장… 이스라엘성서대학 목회자가 변해야, 교회가 산다 [목회… 한국목회임지연구소 교회 후임 요청 … 전세계 모든 열방을 살리는 나성기도… 원데이 성막영성집회 강사 조태규목… 어쨌든 신장병을 고쳤다는데... 장대수 목사의 추석특별 심령치유의 … 수맥과팔체질 "위코세"특강 위드코로나시대의 말씀… 제37차 코칭 목회 세미나 치유전문목회 필독서_GS약선카페 창업… [10월16일 개강]집중력 영어속독 강사&amp;… 꿈이있는교회 3GO사역 "나누고 섬기고 … &gt;Please activate JavaScript for write a comment in LiveRe. 인사이드 시티 이 기사는 논쟁중 “태아 한 명 더 살릴 ‘태아생명 보호법’ 제정” 촉구 10월 국정감사 기간 국회 앞 집중 운행하기로 정부, 태아 생명권 임산부에게 떠넘기지 말고 후속 정책 마련해 태아 생명권 적극 보호해야 행동하는 프로라이프(상임대표 … 美 생명수호단체, 지지자 압수수색·체포한 법무장관 탄핵 촉구 美 유명 만화, ‘레즈비언 여주인공’ 등장 논란 인물 이 사람 “신앙이란 고난 안 만나는 것 아닌, 이길 힘 공급받는 것” “부활하신 예수님께 항상 기도하며 일하니, 범사에 감사뿐입니다” 세계는 지금 메신저 대화 때문에 체포·수감된 나이지리아 기독교인, 재판 회부돼 세계 청소년들, 대부분 예수에 대해 ‘긍정적’이지만… 크리스천 셀럽 가수 이수영 15년 만의 콘서트… “영육 간에 강건해요” 배다해, CCM채널 ‘갓쏭’ 출연해 러빔의 ‘하나님의 열심’ 커버 많이 본 기사 ‘웬만한 중형교회 숫자’ 700여 명 떠나가게 한 교회 분쟁 “부활하신 예수님께 항상 기도하며 일하니, 범사에 감사뿐입니다” “성경 연구 소프트웨어에 혁신을 더하다”… ‘Logos 10’ 출시! “신앙이란 고난 안 만나는 것 아닌, 이길 힘 공급받는 것” [최종천 칼럼] 간결하게 사는 삶 “태아 한 명 더 살릴 ‘태아생명 보호법’ 제정” 촉구 남원중앙교회, 창립 70주년 감사 및 비전선포 예배 [순교자의소리] 금주의 중보기도 (10/10~10/16) 신앙과 삶 [신앙 에세이: 삶과 사랑] 은혜 CT YouTube [영상] “아빠가 엄마로? 허락한 대법관들의 이름 역사는 기억” [영상] 남북관계, 정부가 나서지 말고 기독교계에 맡겨라[영상] 통계가 말하는 동성애와 에이즈[영상] 이영훈 목사 “조용기 목사님은 강단에 서시기만 하면…” 크리스천투데이 크리스천투데이 | 등록번호 : 서울, 아01897 | 등록일자 : 2011년 12월 2일 | 제호 : 크리스천투데이 | 발행인 : 유재광 | 편집인 : 이대웅 | 발행소 : 서울시 종로구 창경궁로 305, 시티빌딩 (혜화동) / 서울시 종로구 혜화동 31-1번지 시티빌딩 | 발행일자 : | 청소년보호책임자 : 송경호 | Tel : 02) 598-4564 | Fax : 02) 6008-4204 Copyright © All rights reserved. 크리스천투데이의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재, 복사, 배포 등은 법적제재를 받을 수 있습니다. 회사소개 | 구독신청 | 개인정보취급방침 | 편집자에게 | 광고안내 02)598-4597 | 대표전화 : 02)598-4564 | Fax : 02)6008-4204 저작권 | 회원약관 | 게시판/댓글 운영원칙 | 이메일주소 무단수집거부</t>
   </si>
 </sst>
 </file>
@@ -434,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +639,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -467,7 +650,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -478,7 +661,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -497,7 +680,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -508,7 +691,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -519,7 +702,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -530,7 +713,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -541,7 +724,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -551,8 +734,424 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
